--- a/перенос в бланк заказа/38 версия ОБЩАЯ с   22.01.xlsx
+++ b/перенос в бланк заказа/38 версия ОБЩАЯ с   22.01.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1337">
   <si>
     <t>фасовка</t>
   </si>
@@ -4065,6 +4065,9 @@
   </si>
   <si>
     <t>СЛАДА® Конфеты с ирисо-сливочным вкусом Пакет 1 кг  УП4</t>
+  </si>
+  <si>
+    <t>E-4KF-511-K13-X00-Y12</t>
   </si>
 </sst>
 </file>
@@ -6042,7 +6045,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1063">
+  <cellXfs count="1071">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9996,6 +9999,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10075,6 +10082,33 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="36" borderId="25" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="36" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -10125,7 +10159,7 @@
     <cellStyle name="Текст предупреждения" xfId="42" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="249">
     <dxf>
       <fill>
         <patternFill>
@@ -10151,6 +10185,18 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12975,8 +13021,8 @@
   <dimension ref="A1:V490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K361" sqref="K361"/>
+      <pane ySplit="11" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A456" sqref="A456:XFD456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13005,14 +13051,14 @@
       <c r="B1" s="762"/>
       <c r="C1" s="150"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="1039" t="s">
+      <c r="E1" s="1040" t="s">
         <v>832</v>
       </c>
-      <c r="F1" s="1039"/>
-      <c r="G1" s="1039"/>
-      <c r="H1" s="1039"/>
-      <c r="I1" s="1039"/>
-      <c r="J1" s="1040"/>
+      <c r="F1" s="1040"/>
+      <c r="G1" s="1040"/>
+      <c r="H1" s="1040"/>
+      <c r="I1" s="1040"/>
+      <c r="J1" s="1041"/>
       <c r="K1" s="474"/>
       <c r="L1" s="474"/>
       <c r="M1" s="474"/>
@@ -13137,11 +13183,11 @@
       <c r="E4" s="155"/>
       <c r="F4" s="197"/>
       <c r="G4" s="155"/>
-      <c r="H4" s="1043" t="s">
+      <c r="H4" s="1044" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="1044"/>
-      <c r="J4" s="1044"/>
+      <c r="I4" s="1045"/>
+      <c r="J4" s="1045"/>
       <c r="K4" s="390" t="s">
         <v>571</v>
       </c>
@@ -13184,11 +13230,11 @@
       <c r="E5" s="191"/>
       <c r="F5" s="198"/>
       <c r="G5" s="156"/>
-      <c r="H5" s="1043" t="s">
+      <c r="H5" s="1044" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1044"/>
-      <c r="J5" s="1045"/>
+      <c r="I5" s="1045"/>
+      <c r="J5" s="1046"/>
       <c r="K5" s="512"/>
       <c r="L5" s="513"/>
       <c r="M5" s="140"/>
@@ -13229,8 +13275,8 @@
       <c r="E6" s="192"/>
       <c r="F6" s="199"/>
       <c r="G6" s="157"/>
-      <c r="H6" s="1046"/>
-      <c r="I6" s="1047"/>
+      <c r="H6" s="1047"/>
+      <c r="I6" s="1048"/>
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
@@ -13272,8 +13318,8 @@
       <c r="E7" s="192"/>
       <c r="F7" s="199"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="1048"/>
-      <c r="I7" s="1049"/>
+      <c r="H7" s="1049"/>
+      <c r="I7" s="1050"/>
       <c r="J7" s="167" t="s">
         <v>70</v>
       </c>
@@ -13315,11 +13361,11 @@
       <c r="E8" s="193"/>
       <c r="F8" s="200"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="1050" t="s">
+      <c r="H8" s="1051" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="1051"/>
-      <c r="J8" s="1051"/>
+      <c r="I8" s="1052"/>
+      <c r="J8" s="1052"/>
       <c r="K8" s="318">
         <f>SUMIF($B:$B,$B19,K:K)</f>
         <v>0</v>
@@ -13443,20 +13489,20 @@
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="336"/>
-      <c r="B10" s="1052"/>
-      <c r="C10" s="1052"/>
-      <c r="D10" s="1052"/>
-      <c r="E10" s="1052"/>
-      <c r="F10" s="1052"/>
-      <c r="G10" s="1052"/>
-      <c r="H10" s="1052"/>
-      <c r="I10" s="1052"/>
-      <c r="J10" s="1052"/>
-      <c r="K10" s="1053"/>
-      <c r="L10" s="1053"/>
-      <c r="M10" s="1053"/>
-      <c r="N10" s="1053"/>
-      <c r="O10" s="1054"/>
+      <c r="B10" s="1053"/>
+      <c r="C10" s="1053"/>
+      <c r="D10" s="1053"/>
+      <c r="E10" s="1053"/>
+      <c r="F10" s="1053"/>
+      <c r="G10" s="1053"/>
+      <c r="H10" s="1053"/>
+      <c r="I10" s="1053"/>
+      <c r="J10" s="1053"/>
+      <c r="K10" s="1054"/>
+      <c r="L10" s="1054"/>
+      <c r="M10" s="1054"/>
+      <c r="N10" s="1054"/>
+      <c r="O10" s="1055"/>
       <c r="P10" s="464" t="s">
         <v>130</v>
       </c>
@@ -13487,41 +13533,41 @@
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="776"/>
-      <c r="B11" s="1055"/>
-      <c r="C11" s="1055"/>
-      <c r="D11" s="1055"/>
-      <c r="E11" s="1055"/>
-      <c r="F11" s="1055"/>
-      <c r="G11" s="1055"/>
-      <c r="H11" s="1055"/>
-      <c r="I11" s="1055"/>
-      <c r="J11" s="1055"/>
-      <c r="K11" s="1055"/>
-      <c r="L11" s="1055"/>
-      <c r="M11" s="1055"/>
-      <c r="N11" s="1055"/>
-      <c r="O11" s="1055"/>
+      <c r="B11" s="1056"/>
+      <c r="C11" s="1056"/>
+      <c r="D11" s="1056"/>
+      <c r="E11" s="1056"/>
+      <c r="F11" s="1056"/>
+      <c r="G11" s="1056"/>
+      <c r="H11" s="1056"/>
+      <c r="I11" s="1056"/>
+      <c r="J11" s="1056"/>
+      <c r="K11" s="1056"/>
+      <c r="L11" s="1056"/>
+      <c r="M11" s="1056"/>
+      <c r="N11" s="1056"/>
+      <c r="O11" s="1056"/>
       <c r="P11" s="466" t="s">
         <v>245</v>
       </c>
       <c r="Q11" s="473">
-        <f>SUM(Лист3!G4:G756)</f>
+        <f>SUM(Лист3!G4:G757)</f>
         <v>0</v>
       </c>
       <c r="R11" s="473">
-        <f>SUM(Лист3!H4:H756)</f>
+        <f>SUM(Лист3!H4:H757)</f>
         <v>0</v>
       </c>
       <c r="S11" s="473">
-        <f>SUM(Лист3!I4:I756)</f>
+        <f>SUM(Лист3!I4:I757)</f>
         <v>0</v>
       </c>
       <c r="T11" s="473">
-        <f>SUM(Лист3!J4:J756)</f>
+        <f>SUM(Лист3!J4:J757)</f>
         <v>0</v>
       </c>
       <c r="U11" s="473">
-        <f>SUM(Лист3!K4:K756)</f>
+        <f>SUM(Лист3!K4:K757)</f>
         <v>0</v>
       </c>
       <c r="V11" s="467"/>
@@ -22664,7 +22710,7 @@
       <c r="C266" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D266" s="1059"/>
+      <c r="D266" s="1060"/>
       <c r="E266" s="127" t="s">
         <v>62</v>
       </c>
@@ -22694,10 +22740,10 @@
       <c r="B267" s="660" t="s">
         <v>81</v>
       </c>
-      <c r="C267" s="1056" t="s">
+      <c r="C267" s="1057" t="s">
         <v>453</v>
       </c>
-      <c r="D267" s="1059"/>
+      <c r="D267" s="1060"/>
       <c r="E267" s="127" t="s">
         <v>62</v>
       </c>
@@ -22727,8 +22773,8 @@
       <c r="B268" s="660" t="s">
         <v>88</v>
       </c>
-      <c r="C268" s="1057"/>
-      <c r="D268" s="1059"/>
+      <c r="C268" s="1058"/>
+      <c r="D268" s="1060"/>
       <c r="E268" s="127" t="s">
         <v>62</v>
       </c>
@@ -22756,8 +22802,8 @@
       <c r="B269" s="660" t="s">
         <v>155</v>
       </c>
-      <c r="C269" s="1057"/>
-      <c r="D269" s="1059"/>
+      <c r="C269" s="1058"/>
+      <c r="D269" s="1060"/>
       <c r="E269" s="492" t="s">
         <v>62</v>
       </c>
@@ -22780,7 +22826,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="15"/>
       <c r="Q269" s="473">
-        <f>SUM(Лист3!G277:G986)</f>
+        <f>SUM(Лист3!G277:G987)</f>
         <v>0</v>
       </c>
     </row>
@@ -22791,8 +22837,8 @@
       <c r="B270" s="660" t="s">
         <v>101</v>
       </c>
-      <c r="C270" s="1057"/>
-      <c r="D270" s="1059"/>
+      <c r="C270" s="1058"/>
+      <c r="D270" s="1060"/>
       <c r="E270" s="492" t="s">
         <v>62</v>
       </c>
@@ -22822,8 +22868,8 @@
       <c r="B271" s="660" t="s">
         <v>32</v>
       </c>
-      <c r="C271" s="1057"/>
-      <c r="D271" s="1059"/>
+      <c r="C271" s="1058"/>
+      <c r="D271" s="1060"/>
       <c r="E271" s="492" t="s">
         <v>62</v>
       </c>
@@ -22853,8 +22899,8 @@
       <c r="B272" s="660" t="s">
         <v>45</v>
       </c>
-      <c r="C272" s="1058"/>
-      <c r="D272" s="1060"/>
+      <c r="C272" s="1059"/>
+      <c r="D272" s="1061"/>
       <c r="E272" s="440" t="s">
         <v>62</v>
       </c>
@@ -22887,7 +22933,7 @@
       <c r="C273" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D273" s="1061">
+      <c r="D273" s="1062">
         <v>32</v>
       </c>
       <c r="E273" s="127" t="s">
@@ -22922,7 +22968,7 @@
       <c r="C274" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D274" s="1059"/>
+      <c r="D274" s="1060"/>
       <c r="E274" s="127" t="s">
         <v>62</v>
       </c>
@@ -22955,7 +23001,7 @@
       <c r="C275" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D275" s="1059"/>
+      <c r="D275" s="1060"/>
       <c r="E275" s="127" t="s">
         <v>62</v>
       </c>
@@ -22988,7 +23034,7 @@
       <c r="C276" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D276" s="1059"/>
+      <c r="D276" s="1060"/>
       <c r="E276" s="127" t="s">
         <v>62</v>
       </c>
@@ -23019,7 +23065,7 @@
       <c r="C277" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D277" s="1059"/>
+      <c r="D277" s="1060"/>
       <c r="E277" s="127" t="s">
         <v>62</v>
       </c>
@@ -23052,7 +23098,7 @@
       <c r="C278" s="533" t="s">
         <v>532</v>
       </c>
-      <c r="D278" s="1059"/>
+      <c r="D278" s="1060"/>
       <c r="E278" s="127" t="s">
         <v>62</v>
       </c>
@@ -23083,7 +23129,7 @@
       <c r="C279" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D279" s="1060"/>
+      <c r="D279" s="1061"/>
       <c r="E279" s="127" t="s">
         <v>62</v>
       </c>
@@ -23298,17 +23344,17 @@
     </row>
     <row r="285" spans="1:15" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="338"/>
-      <c r="B285" s="1041" t="s">
+      <c r="B285" s="1042" t="s">
         <v>199</v>
       </c>
-      <c r="C285" s="1041"/>
-      <c r="D285" s="1041"/>
-      <c r="E285" s="1041"/>
-      <c r="F285" s="1041"/>
-      <c r="G285" s="1041"/>
-      <c r="H285" s="1041"/>
-      <c r="I285" s="1041"/>
-      <c r="J285" s="1042"/>
+      <c r="C285" s="1042"/>
+      <c r="D285" s="1042"/>
+      <c r="E285" s="1042"/>
+      <c r="F285" s="1042"/>
+      <c r="G285" s="1042"/>
+      <c r="H285" s="1042"/>
+      <c r="I285" s="1042"/>
+      <c r="J285" s="1043"/>
       <c r="K285" s="291"/>
       <c r="L285" s="291"/>
       <c r="M285" s="56"/>
@@ -23483,33 +23529,35 @@
       <c r="N291" s="15"/>
       <c r="O291" s="15"/>
     </row>
-    <row r="292" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="338"/>
-      <c r="B292" s="675" t="s">
+    <row r="292" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="338" t="s">
+        <v>831</v>
+      </c>
+      <c r="B292" s="1064" t="s">
         <v>829</v>
       </c>
-      <c r="C292" s="305" t="s">
+      <c r="C292" s="1065" t="s">
         <v>763</v>
       </c>
-      <c r="D292" s="107">
+      <c r="D292" s="1066">
         <v>20</v>
       </c>
-      <c r="E292" s="93" t="s">
+      <c r="E292" s="1067" t="s">
         <v>63</v>
       </c>
-      <c r="F292" s="302">
+      <c r="F292" s="1068">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G292" s="93">
+      <c r="G292" s="1067">
         <v>3</v>
       </c>
-      <c r="H292" s="93">
+      <c r="H292" s="1067">
         <v>30</v>
       </c>
-      <c r="I292" s="298">
+      <c r="I292" s="1069">
         <v>1.7</v>
       </c>
-      <c r="J292" s="351">
+      <c r="J292" s="1070">
         <v>1.8</v>
       </c>
       <c r="K292" s="15"/>
@@ -23518,33 +23566,35 @@
       <c r="N292" s="15"/>
       <c r="O292" s="15"/>
     </row>
-    <row r="293" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="338"/>
-      <c r="B293" s="675" t="s">
+    <row r="293" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="338" t="s">
+        <v>764</v>
+      </c>
+      <c r="B293" s="1064" t="s">
         <v>762</v>
       </c>
-      <c r="C293" s="305" t="s">
+      <c r="C293" s="1065" t="s">
         <v>763</v>
       </c>
-      <c r="D293" s="107">
+      <c r="D293" s="1066">
         <v>20</v>
       </c>
-      <c r="E293" s="93" t="s">
+      <c r="E293" s="1067" t="s">
         <v>63</v>
       </c>
-      <c r="F293" s="302">
+      <c r="F293" s="1068">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G293" s="93">
+      <c r="G293" s="1067">
         <v>3</v>
       </c>
-      <c r="H293" s="93">
+      <c r="H293" s="1067">
         <v>30</v>
       </c>
-      <c r="I293" s="298">
+      <c r="I293" s="1069">
         <v>1.7</v>
       </c>
-      <c r="J293" s="351">
+      <c r="J293" s="1070">
         <v>1.8</v>
       </c>
       <c r="K293" s="15"/>
@@ -24748,7 +24798,7 @@
     </row>
     <row r="330" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="338" t="s">
-        <v>713</v>
+        <v>1336</v>
       </c>
       <c r="B330" s="725" t="s">
         <v>716</v>
@@ -24756,8 +24806,8 @@
       <c r="C330" s="724" t="s">
         <v>715</v>
       </c>
-      <c r="D330" s="724">
-        <v>14</v>
+      <c r="D330" s="1039">
+        <v>12</v>
       </c>
       <c r="E330" s="534" t="s">
         <v>126</v>
@@ -24766,10 +24816,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G330" s="727">
-        <v>15</v>
-      </c>
-      <c r="H330" s="724">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="H330" s="1039">
+        <v>128</v>
       </c>
       <c r="I330" s="729">
         <v>1.778</v>
@@ -25702,7 +25752,7 @@
       </c>
       <c r="D358" s="112"/>
       <c r="E358" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F358" s="253">
         <v>1.2E-2</v>
@@ -25739,7 +25789,7 @@
         <v>4</v>
       </c>
       <c r="E359" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F359" s="253">
         <v>1.7000000000000001E-2</v>
@@ -25774,7 +25824,7 @@
       </c>
       <c r="D360" s="701"/>
       <c r="E360" s="702" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F360" s="703">
         <v>1.2E-2</v>
@@ -25811,7 +25861,7 @@
         <v>4</v>
       </c>
       <c r="E361" s="702" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F361" s="703">
         <v>1.7000000000000001E-2</v>
@@ -25846,7 +25896,7 @@
       </c>
       <c r="D362" s="701"/>
       <c r="E362" s="702" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F362" s="703">
         <v>1.2E-2</v>
@@ -25881,7 +25931,7 @@
       </c>
       <c r="D363" s="112"/>
       <c r="E363" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F363" s="253">
         <v>1.2E-2</v>
@@ -25918,7 +25968,7 @@
         <v>4</v>
       </c>
       <c r="E364" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F364" s="253">
         <v>1.7000000000000001E-2</v>
@@ -29096,10 +29146,8 @@
       <c r="N455" s="15"/>
       <c r="O455" s="15"/>
     </row>
-    <row r="456" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="338" t="s">
-        <v>1332</v>
-      </c>
+    <row r="456" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="338"/>
       <c r="B456" s="1038" t="s">
         <v>1333</v>
       </c>
@@ -30304,7 +30352,7 @@
       <c r="V490"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8aXn/K0talvd8YywSv7gDLvM3En5o1ThrDLTEsxr1rFktPO8jOjvOoCUtifftFfdVlo5tsJPEAebCCzySubmtg==" saltValue="wKLteGhOwctiwwT/N8KHzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jvJY8dON7XkyrOGmec4FNAPm1Z+ek788dYZS0RHxZ9CYY5QyXY29HWimnQ9bcx1qTUDvCt9LwXpj3vMB8fjWOw==" saltValue="lC0usv3J9OOcsBrzreyiBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <autoFilter ref="B1:B490"/>
   <mergeCells count="10">
     <mergeCell ref="E1:J1"/>
@@ -30319,917 +30367,917 @@
     <mergeCell ref="D273:D279"/>
   </mergeCells>
   <conditionalFormatting sqref="K446:O446">
-    <cfRule type="expression" dxfId="247" priority="826">
+    <cfRule type="expression" dxfId="248" priority="826">
       <formula>IF(MOD(K446,$G446)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD132:IV132 W469:Z469 W466:IV468 W461:IV461 W446:Z446 AD95:IV96 W321:Z321 P320:V321 AD439:IV441 P439:Z441 P386:IV387 AD152:IV157 P442:IV443 P466:V469 P383:Z385 AD383:IV385 AD105:IV107 AD139:IV150 AD246:IV246 P293:Z296 AD293:IV296 AD371:IV375 P371:Z375 W450:Z450 AD450:IV450 W457:IV458 P470:Z474 AD470:IV474 W487:Y487 AC487:IV487 AD211:IV230 AD194:IV203 P194:Z230 P246:Z250 P139:Z150 P152:Z157 P81:Z87 AD81:IV87 P378:Z381 AD378:IV381 P403:Z408 Q409:Z412 AD159:IV168 P159:Z168 P39:Z40 P36:Z37 AD39:IV40 AD36:IV37 P95:Z107 AD99:IV103 P256:P278 R256:Z278 Q256:R268 P415:Z435 P318:V318 W318:Z319 P174:Z191 AD174:IV191 P388:Z399 AD388:IV399 AD111:IV116 P111:Z118 P171:Z172 AD171:IV172 P11:V11 AD403:IV412 AD414:IV435 Q414:Z414 P233:Z237 AD233:IV237 AD240:IV244 P240:Z244 P132:Z136 Q132:Q168 Q240:Q278 W447:IV449 P446:V450 P478:Z486 AD478:IV486 AD365:IV369 P365:Z369 AD321:IV347 P322:Z347 P304:Z309 AD304:IV309 Q34:Q36 P34:Z34 AD34:IV34 Q81:Q118 P350:Z355 AD350:IV355 AD42:IV62 P42:Z62 Q39:Q62 AD69:IV73 P69:Z73 P279:Z291 AD256:IV291 Q174:Q230 AD12:IV15 P12:Z15 AD452:IV452 P452:Z452 AD463:IV465 P463:Z465 AD317:IV319 P317:Z317 AD311:IV314 P311:Z314 P17:Z32 AD17:IV32 W459:Z460 AD459:IV460 P457:V461">
-    <cfRule type="cellIs" dxfId="246" priority="825" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="AD132:IV132 W469:Z469 W466:IV468 W461:IV461 W446:Z446 AD95:IV96 W321:Z321 P320:V321 AD439:IV441 P439:Z441 P386:IV387 AD152:IV157 P442:IV443 P466:V469 P383:Z385 AD383:IV385 AD105:IV107 AD139:IV150 AD246:IV246 P293:Z296 AD293:IV296 AD371:IV375 P371:Z375 W450:Z450 AD450:IV450 W457:IV458 P470:Z474 AD470:IV474 W487:Y487 AC487:IV487 AD211:IV230 AD194:IV203 P194:Z230 P246:Z250 P139:Z150 P152:Z157 P81:Z87 AD81:IV87 P378:Z381 AD378:IV381 P403:Z408 Q409:Z412 AD159:IV168 P159:Z168 P39:Z40 P36:Z37 AD39:IV40 AD36:IV37 P95:Z107 AD99:IV103 P256:P278 R256:Z278 Q256:R268 P415:Z435 P318:V318 W318:Z319 P174:Z191 AD174:IV191 P388:Z399 AD388:IV399 AD111:IV116 P111:Z118 P171:Z172 AD171:IV172 P11:V11 AD403:IV412 AD414:IV435 Q414:Z414 P233:Z237 AD233:IV237 AD240:IV244 P240:Z244 P132:Z136 Q132:Q168 Q240:Q278 W447:IV449 P446:V450 P478:Z486 AD478:IV486 AD365:IV369 P365:Z369 P304:Z309 AD304:IV309 Q34:Q36 P34:Z34 AD34:IV34 Q81:Q118 P350:Z355 AD350:IV355 AD42:IV62 P42:Z62 Q39:Q62 AD69:IV73 P69:Z73 P279:Z291 AD256:IV291 Q174:Q230 AD12:IV15 P12:Z15 AD452:IV452 P452:Z452 AD463:IV465 P463:Z465 AD317:IV319 P317:Z317 AD311:IV314 P311:Z314 P17:Z32 AD17:IV32 W459:Z460 AD459:IV460 P457:V461 AD321:IV347 P322:Z347">
+    <cfRule type="cellIs" dxfId="247" priority="825" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:Z7 AD4:IV7">
-    <cfRule type="cellIs" dxfId="245" priority="824" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q171:Q172 Q11:V11 Q233:Q237 Q132:Q168 Q240:Q278 Q34:Q37 Q81:Q118 Q39:Q62 Q69:Q73 Q174:Q230 Q12:Q15 Q17:Q32">
-    <cfRule type="cellIs" dxfId="244" priority="793" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="793" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD104:IV104">
-    <cfRule type="cellIs" dxfId="243" priority="776" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="776" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:V10">
-    <cfRule type="cellIs" dxfId="242" priority="745" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="745" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:V10">
-    <cfRule type="cellIs" dxfId="241" priority="744" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="744" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD247:IV247">
-    <cfRule type="cellIs" dxfId="240" priority="726" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="726" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD205:IV210">
-    <cfRule type="cellIs" dxfId="239" priority="710" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="710" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K243:O244 K156:O157 K159:O165 K84:O85 K100:O100 K143:O150 K212:O213 K256:O256 K282:O282 K293:O296 K217:O225 K194:O197 K463:O474 K409:N412 K440:O442 K371:O375 K365:O369 K36:O37 K266:O279 K416:O435 K323:K325 L323:O323 K414:N414 K105:O116 K478:O486 K304:O309 K29:O32 K34:O34 K42:O46 K69:O73 K177:O191 K21:O25 K13:O15 K452:O452 K447:O450 K317:O318 K311:O314 K17:O17 K378:O408 K457:O461 K328:O354 K289:O291">
-    <cfRule type="expression" dxfId="238" priority="691" stopIfTrue="1">
+  <conditionalFormatting sqref="K243:O244 K156:O157 K159:O165 K84:O85 K100:O100 K143:O150 K212:O213 K256:O256 K282:O282 K293:O296 K217:O225 K194:O197 K463:O474 K409:N412 K440:O442 K371:O375 K365:O369 K36:O37 K266:O279 K416:O435 K323:K325 L323:O323 K414:N414 K105:O116 K478:O486 K304:O309 K29:O32 K34:O34 K42:O46 K69:O73 K177:O191 K21:O25 K13:O15 K452:O452 K447:O450 K317:O318 K311:O314 K17:O17 K378:O408 K457:O461 K289:O291 K328:O354">
+    <cfRule type="expression" dxfId="239" priority="691" stopIfTrue="1">
       <formula>IF(MOD(K13,$G13)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD446:IV446 AD469:IV469">
-    <cfRule type="cellIs" dxfId="237" priority="690" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="690" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD133:IV134">
-    <cfRule type="cellIs" dxfId="236" priority="683" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="683" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD204:IV204">
-    <cfRule type="cellIs" dxfId="235" priority="681" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="681" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD117:IV118">
-    <cfRule type="cellIs" dxfId="234" priority="616" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="616" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD135:IV136">
-    <cfRule type="cellIs" dxfId="233" priority="615" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="615" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD97:IV98">
-    <cfRule type="cellIs" dxfId="232" priority="607" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="607" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198:O198">
-    <cfRule type="expression" dxfId="231" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="578" stopIfTrue="1">
       <formula>IF(MOD(K198,$G198)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD248:IV250">
-    <cfRule type="cellIs" dxfId="230" priority="567" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="567" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:O59">
-    <cfRule type="expression" dxfId="229" priority="540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="540" stopIfTrue="1">
       <formula>IF(MOD(K58,$G58)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96:O96">
-    <cfRule type="expression" dxfId="228" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="535" stopIfTrue="1">
       <formula>IF(MOD(K96,$G96)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133:O134">
-    <cfRule type="expression" dxfId="227" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="531" stopIfTrue="1">
       <formula>IF(MOD(K133,$G133)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199:O208">
-    <cfRule type="expression" dxfId="226" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="523" stopIfTrue="1">
       <formula>IF(MOD(K199,$G199)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236:O237">
-    <cfRule type="expression" dxfId="225" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="518" stopIfTrue="1">
       <formula>IF(MOD(K236,$G236)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249:O250 K252:O254">
-    <cfRule type="expression" dxfId="224" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="516" stopIfTrue="1">
       <formula>IF(MOD(K249,$G249)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:O262">
-    <cfRule type="expression" dxfId="223" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="514" stopIfTrue="1">
       <formula>IF(MOD(K260,$G260)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P297:Z299 AD297:IV299 AD301:IV302 P301:Z302">
-    <cfRule type="cellIs" dxfId="222" priority="461" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="461" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297:O299 K301:O302">
-    <cfRule type="expression" dxfId="221" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="460" stopIfTrue="1">
       <formula>IF(MOD(K297,$G297)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:O54">
-    <cfRule type="expression" dxfId="220" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="453" stopIfTrue="1">
       <formula>IF(MOD(K50,$G50)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:O142 K139:M139 O139">
-    <cfRule type="expression" dxfId="219" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="449" stopIfTrue="1">
       <formula>IF(MOD(K139,$G139)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:O155">
-    <cfRule type="expression" dxfId="218" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="448" stopIfTrue="1">
       <formula>IF(MOD(K152,$G152)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41:IV41 P41:Z41">
-    <cfRule type="cellIs" dxfId="217" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD88:IV92 P88:Z94">
-    <cfRule type="cellIs" dxfId="216" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD93:IV94">
-    <cfRule type="cellIs" dxfId="215" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:O92">
-    <cfRule type="expression" dxfId="214" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="413" stopIfTrue="1">
       <formula>IF(MOD(K92,$G92)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:O91">
-    <cfRule type="expression" dxfId="213" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="411" stopIfTrue="1">
       <formula>IF(MOD(K89,$G89)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P251:Z255">
-    <cfRule type="cellIs" dxfId="212" priority="393" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD251:IV255">
-    <cfRule type="cellIs" dxfId="211" priority="392" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K251:O251 K255:O255">
-    <cfRule type="expression" dxfId="210" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="391" stopIfTrue="1">
       <formula>IF(MOD(K251,$G251)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P436:Z438 AD436:IV438">
-    <cfRule type="cellIs" dxfId="209" priority="389" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K436:O438">
-    <cfRule type="expression" dxfId="208" priority="388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="388" stopIfTrue="1">
       <formula>IF(MOD(K436,$G436)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280:O281">
-    <cfRule type="expression" dxfId="207" priority="834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="834" stopIfTrue="1">
       <formula>IF(MOD(K280,#REF!)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD292:IV292 P292:Z292">
-    <cfRule type="cellIs" dxfId="206" priority="376" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="376" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K292:O292">
-    <cfRule type="expression" dxfId="205" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="375" stopIfTrue="1">
       <formula>IF(MOD(K292,$G292)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD158:IV158 P158:Z158">
-    <cfRule type="cellIs" dxfId="204" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K158:O158">
-    <cfRule type="expression" dxfId="203" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="372" stopIfTrue="1">
       <formula>IF(MOD(K158,$G158)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD370:IV370 P370:Z370">
-    <cfRule type="cellIs" dxfId="202" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K370:O370">
-    <cfRule type="expression" dxfId="201" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="369" stopIfTrue="1">
       <formula>IF(MOD(K370,$G370)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P444:IV445">
-    <cfRule type="cellIs" dxfId="200" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K444:O445">
-    <cfRule type="expression" dxfId="199" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="346" stopIfTrue="1">
       <formula>IF(MOD(K444,$G444)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD245:IV245 P245:Z245">
-    <cfRule type="cellIs" dxfId="198" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K245:O245">
-    <cfRule type="expression" dxfId="197" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="342" stopIfTrue="1">
       <formula>IF(MOD(K245,$G245)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193:O193">
-    <cfRule type="expression" dxfId="196" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="335" stopIfTrue="1">
       <formula>IF(MOD(K193,$G193)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD193:IV193 P193:Z193">
-    <cfRule type="cellIs" dxfId="195" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192:O192">
-    <cfRule type="expression" dxfId="194" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="325" stopIfTrue="1">
       <formula>IF(MOD(K192,$G192)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD192:IV192 P192:Z192">
-    <cfRule type="cellIs" dxfId="193" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="324" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35:IV35 P35:Z35">
-    <cfRule type="cellIs" dxfId="192" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:O35">
-    <cfRule type="expression" dxfId="191" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="313" stopIfTrue="1">
       <formula>IF(MOD(K35,$G35)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD382:IV382 P382:Z382">
-    <cfRule type="cellIs" dxfId="190" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD400:IV402 P400:Z402">
-    <cfRule type="cellIs" dxfId="189" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD151:IV151 P151:Z151">
-    <cfRule type="cellIs" dxfId="188" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K415">
-    <cfRule type="expression" dxfId="187" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="294" stopIfTrue="1">
       <formula>IF(MOD(K415,$G415)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L415:O415">
-    <cfRule type="expression" dxfId="186" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="293" stopIfTrue="1">
       <formula>IF(MOD(L415,$G415)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:O151">
-    <cfRule type="expression" dxfId="185" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="292" stopIfTrue="1">
       <formula>IF(MOD(K151,$G151)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD348:IV349 P348:Z349">
-    <cfRule type="cellIs" dxfId="184" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K300:O300">
-    <cfRule type="expression" dxfId="183" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="287" stopIfTrue="1">
       <formula>IF(MOD(K300,$G300)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P300:Z300 AD300:IV300">
-    <cfRule type="cellIs" dxfId="182" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD303:IV303 P303:Z303">
-    <cfRule type="cellIs" dxfId="181" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303:O303">
-    <cfRule type="expression" dxfId="180" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="283" stopIfTrue="1">
       <formula>IF(MOD(K303,$G303)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD108:IV109 P108:Z109">
-    <cfRule type="cellIs" dxfId="179" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD110:IV110 P110:Z110">
-    <cfRule type="cellIs" dxfId="178" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD137:IV137 P137:Z137">
-    <cfRule type="cellIs" dxfId="177" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K137">
-    <cfRule type="expression" dxfId="176" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="267" stopIfTrue="1">
       <formula>IF(MOD(K137,$G137)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD138:IV138 P138:Z138">
-    <cfRule type="cellIs" dxfId="175" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138">
-    <cfRule type="expression" dxfId="174" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="264" stopIfTrue="1">
       <formula>IF(MOD(K138,$G138)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L137">
-    <cfRule type="expression" dxfId="173" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="263" stopIfTrue="1">
       <formula>IF(MOD(L137,$G137)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L138">
-    <cfRule type="expression" dxfId="172" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="262" stopIfTrue="1">
       <formula>IF(MOD(L138,$G138)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137">
-    <cfRule type="expression" dxfId="171" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="261" stopIfTrue="1">
       <formula>IF(MOD(M137,$G137)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138">
-    <cfRule type="expression" dxfId="170" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="260" stopIfTrue="1">
       <formula>IF(MOD(M138,$G138)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N137">
-    <cfRule type="expression" dxfId="169" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="259" stopIfTrue="1">
       <formula>IF(MOD(N137,$G137)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O137">
-    <cfRule type="expression" dxfId="168" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="257" stopIfTrue="1">
       <formula>IF(MOD(O137,$G137)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O138">
-    <cfRule type="expression" dxfId="167" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="256" stopIfTrue="1">
       <formula>IF(MOD(O138,$G138)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N138">
-    <cfRule type="expression" dxfId="166" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="255" stopIfTrue="1">
       <formula>IF(MOD(N138,$G138)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N139">
-    <cfRule type="expression" dxfId="165" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="254" stopIfTrue="1">
       <formula>IF(MOD(N139,$G139)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P454:IV454">
-    <cfRule type="cellIs" dxfId="164" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD475:IV477 P475:Z477">
-    <cfRule type="cellIs" dxfId="163" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K477:N477 K475:K476 M475:O476">
-    <cfRule type="expression" dxfId="162" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="238" stopIfTrue="1">
       <formula>IF(MOD(K475,$G475)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L475:L476">
-    <cfRule type="expression" dxfId="161" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="233" stopIfTrue="1">
       <formula>IF(MOD(L475,$G475)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O477">
-    <cfRule type="expression" dxfId="160" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="232" stopIfTrue="1">
       <formula>IF(MOD(O477,$G477)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K454:O454">
-    <cfRule type="expression" dxfId="159" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="228" stopIfTrue="1">
       <formula>IF(MOD(K454,$G454)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O409:P412 O414:P414">
-    <cfRule type="expression" dxfId="158" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="207" stopIfTrue="1">
       <formula>IF(MOD(O409,$G409)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K443:O443">
-    <cfRule type="expression" dxfId="157" priority="206">
+    <cfRule type="expression" dxfId="158" priority="206">
       <formula>IF(MOD(K443,$G443)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324:L325">
-    <cfRule type="expression" dxfId="156" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="199" stopIfTrue="1">
       <formula>IF(MOD(L324,$G324)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324:M325">
-    <cfRule type="expression" dxfId="155" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="198" stopIfTrue="1">
       <formula>IF(MOD(M324,$G324)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N324:N325">
-    <cfRule type="expression" dxfId="154" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="197" stopIfTrue="1">
       <formula>IF(MOD(N324,$G324)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O324:O325">
-    <cfRule type="expression" dxfId="153" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="196" stopIfTrue="1">
       <formula>IF(MOD(O324,$G324)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD63:IV65 P63:Z65 P74:Z80 AD74:IV80">
-    <cfRule type="cellIs" dxfId="152" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q63:Q65 Q74:Q80">
-    <cfRule type="cellIs" dxfId="151" priority="188" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="188" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:O65 K74:O80">
-    <cfRule type="expression" dxfId="150" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="187" stopIfTrue="1">
       <formula>IF(MOD(K63,$G63)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD376:IV377 P376:Z377">
-    <cfRule type="cellIs" dxfId="149" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K376:O377">
-    <cfRule type="expression" dxfId="148" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="184" stopIfTrue="1">
       <formula>IF(MOD(K376,$G376)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P173:Z173 AD173:IV173">
-    <cfRule type="cellIs" dxfId="147" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K171:O173">
-    <cfRule type="expression" dxfId="146" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
       <formula>IF(MOD(K171,$G171)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P170:Z170 AD170:IV170">
-    <cfRule type="cellIs" dxfId="145" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q170">
-    <cfRule type="cellIs" dxfId="144" priority="142" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="142" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170:O170">
-    <cfRule type="expression" dxfId="143" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="140" stopIfTrue="1">
       <formula>IF(MOD(K170,$G170)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P169:Z169 AD169:IV169">
-    <cfRule type="cellIs" dxfId="142" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q169">
-    <cfRule type="cellIs" dxfId="141" priority="138" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="138" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169:O169">
-    <cfRule type="expression" dxfId="140" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="136" stopIfTrue="1">
       <formula>IF(MOD(K169,$G169)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:IV38 P38:Z38">
-    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="133" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:O38">
-    <cfRule type="expression" dxfId="137" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="132" stopIfTrue="1">
       <formula>IF(MOD(K38,$G38)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322:O322">
-    <cfRule type="expression" dxfId="136" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="130" stopIfTrue="1">
       <formula>IF(MOD(K322,$G322)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD413:IV413 Q413:Z413">
-    <cfRule type="cellIs" dxfId="135" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K413:N413">
-    <cfRule type="expression" dxfId="134" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="127" stopIfTrue="1">
       <formula>IF(MOD(K413,$G413)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O413:P413">
-    <cfRule type="expression" dxfId="133" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="126" stopIfTrue="1">
       <formula>IF(MOD(O413,$G413)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P231:Z231 AD231:IV231">
-    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q231">
-    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="124" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P232:Z232 AD232:IV232">
-    <cfRule type="cellIs" dxfId="130" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q232">
-    <cfRule type="cellIs" dxfId="129" priority="120" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="120" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD238:IV238 P238:Z238">
-    <cfRule type="cellIs" dxfId="128" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q238">
-    <cfRule type="cellIs" dxfId="127" priority="114" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="114" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K238:O238">
-    <cfRule type="expression" dxfId="126" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="113" stopIfTrue="1">
       <formula>IF(MOD(K238,$G238)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K229:O230 K232:O232">
-    <cfRule type="expression" dxfId="125" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="111" stopIfTrue="1">
       <formula>IF(MOD(K229,$G229)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K231:O231">
-    <cfRule type="expression" dxfId="124" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="110" stopIfTrue="1">
       <formula>IF(MOD(K231,$G231)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P239:Z239 AD239:IV239">
-    <cfRule type="cellIs" dxfId="123" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q239">
-    <cfRule type="cellIs" dxfId="122" priority="108" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="108" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K239:O239">
-    <cfRule type="expression" dxfId="121" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="107" stopIfTrue="1">
       <formula>IF(MOD(K239,$G239)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD66:IV66 P66:Z66">
-    <cfRule type="cellIs" dxfId="120" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66">
-    <cfRule type="cellIs" dxfId="119" priority="103" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="103" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:O66">
-    <cfRule type="expression" dxfId="118" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="102" stopIfTrue="1">
       <formula>IF(MOD(K66,$G66)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD67:IV67 P67:Z67">
-    <cfRule type="cellIs" dxfId="117" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q67">
-    <cfRule type="cellIs" dxfId="116" priority="100" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="100" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67:O67">
-    <cfRule type="expression" dxfId="115" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="99" stopIfTrue="1">
       <formula>IF(MOD(K67,$G67)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q68">
-    <cfRule type="cellIs" dxfId="114" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q68">
-    <cfRule type="cellIs" dxfId="113" priority="96" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="96" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD68:IV68 P68:Z68">
-    <cfRule type="cellIs" dxfId="112" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:O68">
-    <cfRule type="expression" dxfId="111" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="93" stopIfTrue="1">
       <formula>IF(MOD(K68,$G68)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD119:IV119 Q124:Q125 Q121:Q122 P119:Z119">
-    <cfRule type="cellIs" dxfId="110" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q124:Q125 Q121:Q122 Q119">
-    <cfRule type="cellIs" dxfId="109" priority="73" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="73" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD121:IV122 P121:Z122">
-    <cfRule type="cellIs" dxfId="108" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD124:IV125 P124:Z125">
-    <cfRule type="cellIs" dxfId="107" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD123:IV123 P123:Z123">
-    <cfRule type="cellIs" dxfId="106" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="cellIs" dxfId="105" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="cellIs" dxfId="104" priority="56" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="56" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:Z120 AD120:IV120">
-    <cfRule type="cellIs" dxfId="103" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q123">
-    <cfRule type="cellIs" dxfId="102" priority="63" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:O123">
-    <cfRule type="expression" dxfId="101" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="62" stopIfTrue="1">
       <formula>IF(MOD(K123,$G123)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD127:IV128 P127:Z128">
-    <cfRule type="cellIs" dxfId="100" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120">
-    <cfRule type="cellIs" dxfId="99" priority="60" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="60" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:O120">
-    <cfRule type="expression" dxfId="98" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="59" stopIfTrue="1">
       <formula>IF(MOD(K120,$G120)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q126">
-    <cfRule type="cellIs" dxfId="97" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q126">
-    <cfRule type="cellIs" dxfId="96" priority="53" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="53" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD126:IV126 P126:Z126">
-    <cfRule type="cellIs" dxfId="95" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:O126">
-    <cfRule type="expression" dxfId="94" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="51" stopIfTrue="1">
       <formula>IF(MOD(K126,$G126)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD129:IV129 Q129:Q131 P129 R129:Z129">
-    <cfRule type="cellIs" dxfId="93" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q129:Q131">
-    <cfRule type="cellIs" dxfId="92" priority="49" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="49" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:O129">
-    <cfRule type="expression" dxfId="91" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="48" stopIfTrue="1">
       <formula>IF(MOD(K129,$G129)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD130:IV131 P130:Z131">
-    <cfRule type="cellIs" dxfId="90" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P356:Z359 AD356:IV359 AD363:IV364 P363:Z364">
-    <cfRule type="cellIs" dxfId="89" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33:IV33 P33:Z33">
-    <cfRule type="cellIs" dxfId="88" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="cellIs" dxfId="87" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:O33">
-    <cfRule type="expression" dxfId="86" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="35" stopIfTrue="1">
       <formula>IF(MOD(K33,$G33)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD451:IV451 P451:Z451">
-    <cfRule type="cellIs" dxfId="85" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K451:O451">
-    <cfRule type="expression" dxfId="84" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="32" stopIfTrue="1">
       <formula>IF(MOD(K451,$G451)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P453:IV453">
-    <cfRule type="cellIs" dxfId="83" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K453:O453">
-    <cfRule type="expression" dxfId="82" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="28" stopIfTrue="1">
       <formula>IF(MOD(K453,$G453)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P462:Z462 AD462:IV462">
-    <cfRule type="cellIs" dxfId="81" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K462:O462">
-    <cfRule type="expression" dxfId="80" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="25" stopIfTrue="1">
       <formula>IF(MOD(K462,$G462)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD315:IV315 P315:Z315">
-    <cfRule type="cellIs" dxfId="79" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315:O315">
-    <cfRule type="expression" dxfId="78" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="23" stopIfTrue="1">
       <formula>IF(MOD(K315,$G315)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316:O316">
-    <cfRule type="expression" dxfId="77" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
       <formula>IF(MOD(K316,$G316)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P310:Z310 AD310:IV310">
-    <cfRule type="cellIs" dxfId="76" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K310:O310">
-    <cfRule type="expression" dxfId="75" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
       <formula>IF(MOD(K310,$G310)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD316:IV316 P316:Z316">
-    <cfRule type="cellIs" dxfId="74" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16:IV16 P16:Z16">
-    <cfRule type="cellIs" dxfId="73" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="72" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>540</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:O16">
-    <cfRule type="expression" dxfId="71" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
       <formula>IF(MOD(K16,$G16)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P456:IV456">
-    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K456:O456">
-    <cfRule type="expression" dxfId="69" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="9" stopIfTrue="1">
       <formula>IF(MOD(K456,$G456)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P455:IV455">
-    <cfRule type="cellIs" dxfId="68" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K455:O455">
-    <cfRule type="expression" dxfId="67" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
       <formula>IF(MOD(K455,$G455)&lt;&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P360:Z361 AD360:IV361">
-    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P362:Z362 AD362:IV362">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31249,7 +31297,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A42:A129 A13:A40 A132:A350 A352:A488</xm:sqref>
+          <xm:sqref>A42:A129 A13:A40 A352:A488 A132:A350</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="423" id="{52796749-987F-4AE3-9CC3-81F4F1C3E2FC}">
@@ -31298,11 +31346,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L613"/>
+  <dimension ref="A1:L614"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A544" sqref="A544:XFD545"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C418" sqref="C418:L418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42827,7 +42875,7 @@
       <c r="C274" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D274" s="1062">
+      <c r="D274" s="1063">
         <v>64</v>
       </c>
       <c r="E274" s="115" t="s">
@@ -42871,7 +42919,7 @@
       <c r="C275" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D275" s="1059"/>
+      <c r="D275" s="1060"/>
       <c r="E275" s="127" t="s">
         <v>62</v>
       </c>
@@ -42910,10 +42958,10 @@
       <c r="B276" s="660" t="s">
         <v>81</v>
       </c>
-      <c r="C276" s="1056" t="s">
+      <c r="C276" s="1057" t="s">
         <v>453</v>
       </c>
-      <c r="D276" s="1059"/>
+      <c r="D276" s="1060"/>
       <c r="E276" s="127" t="s">
         <v>62</v>
       </c>
@@ -42952,8 +43000,8 @@
       <c r="B277" s="660" t="s">
         <v>88</v>
       </c>
-      <c r="C277" s="1057"/>
-      <c r="D277" s="1059"/>
+      <c r="C277" s="1058"/>
+      <c r="D277" s="1060"/>
       <c r="E277" s="127" t="s">
         <v>62</v>
       </c>
@@ -42992,8 +43040,8 @@
       <c r="B278" s="660" t="s">
         <v>155</v>
       </c>
-      <c r="C278" s="1057"/>
-      <c r="D278" s="1059"/>
+      <c r="C278" s="1058"/>
+      <c r="D278" s="1060"/>
       <c r="E278" s="492" t="s">
         <v>62</v>
       </c>
@@ -43032,8 +43080,8 @@
       <c r="B279" s="660" t="s">
         <v>101</v>
       </c>
-      <c r="C279" s="1057"/>
-      <c r="D279" s="1059"/>
+      <c r="C279" s="1058"/>
+      <c r="D279" s="1060"/>
       <c r="E279" s="492" t="s">
         <v>62</v>
       </c>
@@ -43072,8 +43120,8 @@
       <c r="B280" s="660" t="s">
         <v>32</v>
       </c>
-      <c r="C280" s="1057"/>
-      <c r="D280" s="1059"/>
+      <c r="C280" s="1058"/>
+      <c r="D280" s="1060"/>
       <c r="E280" s="492" t="s">
         <v>62</v>
       </c>
@@ -43112,8 +43160,8 @@
       <c r="B281" s="665" t="s">
         <v>89</v>
       </c>
-      <c r="C281" s="1057"/>
-      <c r="D281" s="1059"/>
+      <c r="C281" s="1058"/>
+      <c r="D281" s="1060"/>
       <c r="E281" s="492" t="s">
         <v>62</v>
       </c>
@@ -43152,8 +43200,8 @@
       <c r="B282" s="660" t="s">
         <v>45</v>
       </c>
-      <c r="C282" s="1058"/>
-      <c r="D282" s="1060"/>
+      <c r="C282" s="1059"/>
+      <c r="D282" s="1061"/>
       <c r="E282" s="492" t="s">
         <v>62</v>
       </c>
@@ -43195,7 +43243,7 @@
       <c r="C283" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D283" s="1061">
+      <c r="D283" s="1062">
         <v>32</v>
       </c>
       <c r="E283" s="492" t="s">
@@ -43239,7 +43287,7 @@
       <c r="C284" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D284" s="1059"/>
+      <c r="D284" s="1060"/>
       <c r="E284" s="492" t="s">
         <v>62</v>
       </c>
@@ -43281,7 +43329,7 @@
       <c r="C285" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D285" s="1059"/>
+      <c r="D285" s="1060"/>
       <c r="E285" s="492" t="s">
         <v>62</v>
       </c>
@@ -43323,7 +43371,7 @@
       <c r="C286" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D286" s="1059"/>
+      <c r="D286" s="1060"/>
       <c r="E286" s="492" t="s">
         <v>62</v>
       </c>
@@ -43365,7 +43413,7 @@
       <c r="C287" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D287" s="1059"/>
+      <c r="D287" s="1060"/>
       <c r="E287" s="492" t="s">
         <v>62</v>
       </c>
@@ -43407,7 +43455,7 @@
       <c r="C288" s="579" t="s">
         <v>532</v>
       </c>
-      <c r="D288" s="1059"/>
+      <c r="D288" s="1060"/>
       <c r="E288" s="492" t="s">
         <v>62</v>
       </c>
@@ -43449,7 +43497,7 @@
       <c r="C289" s="503" t="s">
         <v>129</v>
       </c>
-      <c r="D289" s="1059"/>
+      <c r="D289" s="1060"/>
       <c r="E289" s="492" t="s">
         <v>62</v>
       </c>
@@ -43491,7 +43539,7 @@
       <c r="C290" s="503" t="s">
         <v>129</v>
       </c>
-      <c r="D290" s="1060"/>
+      <c r="D290" s="1061"/>
       <c r="E290" s="492" t="s">
         <v>62</v>
       </c>
@@ -48989,22 +49037,22 @@
     </row>
     <row r="418" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="340" t="s">
-        <v>713</v>
-      </c>
-      <c r="B418" s="678" t="s">
-        <v>714</v>
+        <v>1336</v>
+      </c>
+      <c r="B418" s="725" t="s">
+        <v>716</v>
       </c>
       <c r="C418" s="112" t="s">
         <v>715</v>
       </c>
       <c r="D418" s="112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E418" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F418" s="112">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G418" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A418,Лист1!K:K)/$F418,0)</f>
@@ -49033,10 +49081,10 @@
     </row>
     <row r="419" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="340" t="s">
-        <v>1244</v>
+        <v>713</v>
       </c>
       <c r="B419" s="678" t="s">
-        <v>1243</v>
+        <v>714</v>
       </c>
       <c r="C419" s="112" t="s">
         <v>715</v>
@@ -49048,7 +49096,7 @@
         <v>126</v>
       </c>
       <c r="F419" s="112">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G419" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A419,Лист1!K:K)/$F419,0)</f>
@@ -49077,16 +49125,16 @@
     </row>
     <row r="420" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="340" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B420" s="678" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C420" s="112" t="s">
         <v>715</v>
       </c>
       <c r="D420" s="112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E420" s="127" t="s">
         <v>126</v>
@@ -49121,20 +49169,22 @@
     </row>
     <row r="421" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="340" t="s">
-        <v>1082</v>
+        <v>1246</v>
       </c>
       <c r="B421" s="678" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C421" s="112">
-        <v>5</v>
-      </c>
-      <c r="D421" s="112"/>
+        <v>1245</v>
+      </c>
+      <c r="C421" s="112" t="s">
+        <v>715</v>
+      </c>
+      <c r="D421" s="112">
+        <v>12</v>
+      </c>
       <c r="E421" s="127" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F421" s="112">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G421" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A421,Лист1!K:K)/$F421,0)</f>
@@ -49163,17 +49213,15 @@
     </row>
     <row r="422" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="340" t="s">
-        <v>861</v>
+        <v>1082</v>
       </c>
       <c r="B422" s="678" t="s">
-        <v>862</v>
-      </c>
-      <c r="C422" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D422" s="112">
-        <v>10</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="C422" s="112">
+        <v>5</v>
+      </c>
+      <c r="D422" s="112"/>
       <c r="E422" s="127" t="s">
         <v>64</v>
       </c>
@@ -49207,19 +49255,19 @@
     </row>
     <row r="423" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="340" t="s">
-        <v>369</v>
+        <v>861</v>
       </c>
       <c r="B423" s="678" t="s">
-        <v>243</v>
+        <v>862</v>
       </c>
       <c r="C423" s="112" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D423" s="112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E423" s="127" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F423" s="112">
         <v>72</v>
@@ -49251,22 +49299,22 @@
     </row>
     <row r="424" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="340" t="s">
-        <v>782</v>
+        <v>369</v>
       </c>
       <c r="B424" s="678" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C424" s="112" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D424" s="112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E424" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F424" s="112">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G424" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A424,Лист1!K:K)/$F424,0)</f>
@@ -49293,24 +49341,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="340" t="s">
-        <v>1032</v>
+        <v>782</v>
       </c>
       <c r="B425" s="678" t="s">
-        <v>860</v>
+        <v>251</v>
       </c>
       <c r="C425" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D425" s="718">
+        <v>189</v>
+      </c>
+      <c r="D425" s="112">
         <v>10</v>
       </c>
       <c r="E425" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F425" s="718">
-        <v>72</v>
+      <c r="F425" s="112">
+        <v>105</v>
       </c>
       <c r="G425" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A425,Лист1!K:K)/$F425,0)</f>
@@ -49339,20 +49387,22 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="340" t="s">
-        <v>1114</v>
+        <v>1032</v>
       </c>
       <c r="B426" s="678" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C426" s="112">
-        <v>4</v>
-      </c>
-      <c r="D426" s="866"/>
+        <v>860</v>
+      </c>
+      <c r="C426" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D426" s="718">
+        <v>10</v>
+      </c>
       <c r="E426" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F426" s="866">
-        <v>100</v>
+      <c r="F426" s="718">
+        <v>72</v>
       </c>
       <c r="G426" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A426,Лист1!K:K)/$F426,0)</f>
@@ -49381,22 +49431,20 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="340" t="s">
-        <v>1267</v>
+        <v>1114</v>
       </c>
       <c r="B427" s="678" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C427" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="D427" s="1019">
-        <v>10</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="C427" s="112">
+        <v>4</v>
+      </c>
+      <c r="D427" s="866"/>
       <c r="E427" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F427" s="1019">
-        <v>120</v>
+      <c r="F427" s="866">
+        <v>100</v>
       </c>
       <c r="G427" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A427,Лист1!K:K)/$F427,0)</f>
@@ -49423,24 +49471,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="340" t="s">
-        <v>746</v>
+        <v>1267</v>
       </c>
       <c r="B428" s="678" t="s">
-        <v>745</v>
+        <v>1248</v>
       </c>
       <c r="C428" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D428" s="112">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="D428" s="1019">
+        <v>10</v>
       </c>
       <c r="E428" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F428" s="112">
-        <v>100</v>
+      <c r="F428" s="1019">
+        <v>120</v>
       </c>
       <c r="G428" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A428,Лист1!K:K)/$F428,0)</f>
@@ -49469,10 +49517,10 @@
     </row>
     <row r="429" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="340" t="s">
-        <v>574</v>
+        <v>746</v>
       </c>
       <c r="B429" s="678" t="s">
-        <v>573</v>
+        <v>745</v>
       </c>
       <c r="C429" s="112" t="s">
         <v>194</v>
@@ -49513,22 +49561,22 @@
     </row>
     <row r="430" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="340" t="s">
-        <v>370</v>
+        <v>574</v>
       </c>
       <c r="B430" s="678" t="s">
-        <v>242</v>
+        <v>573</v>
       </c>
       <c r="C430" s="112" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D430" s="112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E430" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F430" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G430" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A430,Лист1!K:K)/$F430,0)</f>
@@ -49557,16 +49605,16 @@
     </row>
     <row r="431" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="340" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B431" s="678" t="s">
-        <v>383</v>
+        <v>242</v>
       </c>
       <c r="C431" s="112" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D431" s="112">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E431" s="127" t="s">
         <v>62</v>
@@ -49600,23 +49648,23 @@
       </c>
     </row>
     <row r="432" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="338" t="s">
-        <v>870</v>
-      </c>
-      <c r="B432" s="263" t="s">
-        <v>579</v>
+      <c r="A432" s="340" t="s">
+        <v>384</v>
+      </c>
+      <c r="B432" s="678" t="s">
+        <v>383</v>
       </c>
       <c r="C432" s="112" t="s">
         <v>189</v>
       </c>
       <c r="D432" s="112">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E432" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F432" s="112">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G432" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A432,Лист1!K:K)/$F432,0)</f>
@@ -49645,22 +49693,22 @@
     </row>
     <row r="433" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="338" t="s">
-        <v>1039</v>
+        <v>870</v>
       </c>
       <c r="B433" s="263" t="s">
-        <v>888</v>
+        <v>579</v>
       </c>
       <c r="C433" s="112" t="s">
         <v>189</v>
       </c>
       <c r="D433" s="112">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E433" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F433" s="112">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G433" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A433,Лист1!K:K)/$F433,0)</f>
@@ -49688,11 +49736,11 @@
       </c>
     </row>
     <row r="434" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="340" t="s">
-        <v>719</v>
+      <c r="A434" s="338" t="s">
+        <v>1039</v>
       </c>
       <c r="B434" s="263" t="s">
-        <v>649</v>
+        <v>888</v>
       </c>
       <c r="C434" s="112" t="s">
         <v>189</v>
@@ -49701,10 +49749,10 @@
         <v>10</v>
       </c>
       <c r="E434" s="127" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F434" s="112">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G434" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A434,Лист1!K:K)/$F434,0)</f>
@@ -49733,10 +49781,10 @@
     </row>
     <row r="435" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="340" t="s">
-        <v>1040</v>
+        <v>719</v>
       </c>
       <c r="B435" s="263" t="s">
-        <v>966</v>
+        <v>649</v>
       </c>
       <c r="C435" s="112" t="s">
         <v>189</v>
@@ -49745,10 +49793,10 @@
         <v>10</v>
       </c>
       <c r="E435" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F435" s="112">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G435" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A435,Лист1!K:K)/$F435,0)</f>
@@ -49777,13 +49825,13 @@
     </row>
     <row r="436" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="340" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="B436" s="263" t="s">
-        <v>599</v>
+        <v>966</v>
       </c>
       <c r="C436" s="112" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D436" s="112">
         <v>10</v>
@@ -49821,20 +49869,22 @@
     </row>
     <row r="437" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="340" t="s">
-        <v>851</v>
+        <v>1033</v>
       </c>
       <c r="B437" s="263" t="s">
-        <v>850</v>
-      </c>
-      <c r="C437" s="112">
-        <v>4</v>
-      </c>
-      <c r="D437" s="112"/>
+        <v>599</v>
+      </c>
+      <c r="C437" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D437" s="112">
+        <v>10</v>
+      </c>
       <c r="E437" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F437" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G437" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A437,Лист1!K:K)/$F437,0)</f>
@@ -49863,17 +49913,15 @@
     </row>
     <row r="438" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="340" t="s">
-        <v>923</v>
+        <v>851</v>
       </c>
       <c r="B438" s="263" t="s">
-        <v>922</v>
-      </c>
-      <c r="C438" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D438" s="112">
+        <v>850</v>
+      </c>
+      <c r="C438" s="112">
         <v>4</v>
       </c>
+      <c r="D438" s="112"/>
       <c r="E438" s="127" t="s">
         <v>126</v>
       </c>
@@ -49907,15 +49955,17 @@
     </row>
     <row r="439" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="340" t="s">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="B439" s="263" t="s">
-        <v>897</v>
-      </c>
-      <c r="C439" s="112">
+        <v>922</v>
+      </c>
+      <c r="C439" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D439" s="112">
         <v>4</v>
       </c>
-      <c r="D439" s="112"/>
       <c r="E439" s="127" t="s">
         <v>126</v>
       </c>
@@ -49949,22 +49999,20 @@
     </row>
     <row r="440" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="340" t="s">
-        <v>1010</v>
+        <v>896</v>
       </c>
       <c r="B440" s="263" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C440" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D440" s="112">
-        <v>10</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="C440" s="112">
+        <v>4</v>
+      </c>
+      <c r="D440" s="112"/>
       <c r="E440" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F440" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G440" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A440,Лист1!K:K)/$F440,0)</f>
@@ -49993,22 +50041,22 @@
     </row>
     <row r="441" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="340" t="s">
-        <v>566</v>
+        <v>1010</v>
       </c>
       <c r="B441" s="263" t="s">
-        <v>565</v>
+        <v>1011</v>
       </c>
       <c r="C441" s="112" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D441" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E441" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F441" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G441" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A441,Лист1!K:K)/$F441,0)</f>
@@ -50037,22 +50085,22 @@
     </row>
     <row r="442" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="340" t="s">
-        <v>1013</v>
+        <v>566</v>
       </c>
       <c r="B442" s="263" t="s">
-        <v>1012</v>
+        <v>565</v>
       </c>
       <c r="C442" s="112" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D442" s="112">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E442" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F442" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G442" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A442,Лист1!K:K)/$F442,0)</f>
@@ -50081,22 +50129,22 @@
     </row>
     <row r="443" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="340" t="s">
-        <v>647</v>
+        <v>1013</v>
       </c>
       <c r="B443" s="263" t="s">
-        <v>648</v>
+        <v>1012</v>
       </c>
       <c r="C443" s="112" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D443" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E443" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F443" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G443" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A443,Лист1!K:K)/$F443,0)</f>
@@ -50124,11 +50172,11 @@
       </c>
     </row>
     <row r="444" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="340">
-        <v>32711</v>
-      </c>
-      <c r="B444" s="678" t="s">
-        <v>572</v>
+      <c r="A444" s="340" t="s">
+        <v>647</v>
+      </c>
+      <c r="B444" s="263" t="s">
+        <v>648</v>
       </c>
       <c r="C444" s="112" t="s">
         <v>182</v>
@@ -50168,23 +50216,23 @@
       </c>
     </row>
     <row r="445" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="340" t="s">
-        <v>1320</v>
+      <c r="A445" s="340">
+        <v>32711</v>
       </c>
       <c r="B445" s="678" t="s">
-        <v>1319</v>
+        <v>572</v>
       </c>
       <c r="C445" s="112" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="D445" s="112">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E445" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F445" s="112">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="G445" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A445,Лист1!K:K)/$F445,0)</f>
@@ -50213,13 +50261,13 @@
     </row>
     <row r="446" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="340" t="s">
-        <v>1086</v>
+        <v>1320</v>
       </c>
       <c r="B446" s="678" t="s">
-        <v>1085</v>
+        <v>1319</v>
       </c>
       <c r="C446" s="112" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D446" s="112">
         <v>10</v>
@@ -50228,7 +50276,7 @@
         <v>126</v>
       </c>
       <c r="F446" s="112">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G446" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A446,Лист1!K:K)/$F446,0)</f>
@@ -50257,20 +50305,22 @@
     </row>
     <row r="447" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="340" t="s">
-        <v>895</v>
+        <v>1086</v>
       </c>
       <c r="B447" s="678" t="s">
-        <v>894</v>
-      </c>
-      <c r="C447" s="112">
-        <v>4</v>
-      </c>
-      <c r="D447" s="112"/>
+        <v>1085</v>
+      </c>
+      <c r="C447" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D447" s="112">
+        <v>10</v>
+      </c>
       <c r="E447" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F447" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G447" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A447,Лист1!K:K)/$F447,0)</f>
@@ -50299,17 +50349,15 @@
     </row>
     <row r="448" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="340" t="s">
-        <v>802</v>
-      </c>
-      <c r="B448" s="263" t="s">
-        <v>811</v>
-      </c>
-      <c r="C448" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D448" s="112">
+        <v>895</v>
+      </c>
+      <c r="B448" s="678" t="s">
+        <v>894</v>
+      </c>
+      <c r="C448" s="112">
         <v>4</v>
       </c>
+      <c r="D448" s="112"/>
       <c r="E448" s="127" t="s">
         <v>126</v>
       </c>
@@ -50341,22 +50389,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="340"/>
+    <row r="449" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="340" t="s">
+        <v>802</v>
+      </c>
       <c r="B449" s="263" t="s">
-        <v>455</v>
+        <v>811</v>
       </c>
       <c r="C449" s="112" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D449" s="112">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E449" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F449" s="112">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G449" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A449,Лист1!K:K)/$F449,0)</f>
@@ -50383,24 +50433,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="340" t="s">
-        <v>799</v>
-      </c>
+    <row r="450" spans="1:12" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="340"/>
       <c r="B450" s="263" t="s">
-        <v>801</v>
+        <v>455</v>
       </c>
       <c r="C450" s="112" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D450" s="112">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E450" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F450" s="112">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G450" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A450,Лист1!K:K)/$F450,0)</f>
@@ -50429,22 +50477,22 @@
     </row>
     <row r="451" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="340" t="s">
-        <v>371</v>
+        <v>799</v>
       </c>
       <c r="B451" s="263" t="s">
-        <v>196</v>
+        <v>801</v>
       </c>
       <c r="C451" s="112" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D451" s="112">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E451" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F451" s="112">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G451" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A451,Лист1!K:K)/$F451,0)</f>
@@ -50473,22 +50521,22 @@
     </row>
     <row r="452" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="340" t="s">
-        <v>807</v>
+        <v>371</v>
       </c>
       <c r="B452" s="263" t="s">
-        <v>809</v>
+        <v>196</v>
       </c>
       <c r="C452" s="112" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D452" s="112">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E452" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F452" s="112">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="G452" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A452,Лист1!K:K)/$F452,0)</f>
@@ -50517,10 +50565,10 @@
     </row>
     <row r="453" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="340" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="B453" s="263" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C453" s="112" t="s">
         <v>182</v>
@@ -50561,15 +50609,17 @@
     </row>
     <row r="454" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="340" t="s">
-        <v>911</v>
+        <v>790</v>
       </c>
       <c r="B454" s="263" t="s">
-        <v>910</v>
+        <v>791</v>
       </c>
       <c r="C454" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="D454" s="112"/>
+        <v>182</v>
+      </c>
+      <c r="D454" s="112">
+        <v>4</v>
+      </c>
       <c r="E454" s="127" t="s">
         <v>126</v>
       </c>
@@ -50603,17 +50653,15 @@
     </row>
     <row r="455" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="340" t="s">
-        <v>805</v>
+        <v>911</v>
       </c>
       <c r="B455" s="263" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="C455" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D455" s="112">
-        <v>4</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D455" s="112"/>
       <c r="E455" s="127" t="s">
         <v>126</v>
       </c>
@@ -50645,12 +50693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="340" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B456" s="263" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C456" s="112" t="s">
         <v>182</v>
@@ -50689,21 +50737,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="340" t="s">
-        <v>393</v>
-      </c>
-      <c r="B457" s="264" t="s">
-        <v>394</v>
-      </c>
-      <c r="C457" s="111">
-        <v>3</v>
-      </c>
-      <c r="D457" s="111"/>
-      <c r="E457" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="F457" s="111">
+        <v>803</v>
+      </c>
+      <c r="B457" s="263" t="s">
+        <v>804</v>
+      </c>
+      <c r="C457" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D457" s="112">
+        <v>4</v>
+      </c>
+      <c r="E457" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="F457" s="112">
         <v>100</v>
       </c>
       <c r="G457" s="468">
@@ -50733,20 +50783,20 @@
     </row>
     <row r="458" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="340" t="s">
-        <v>602</v>
-      </c>
-      <c r="B458" s="556" t="s">
-        <v>600</v>
-      </c>
-      <c r="C458" s="567">
-        <v>1.5</v>
-      </c>
-      <c r="D458" s="567"/>
-      <c r="E458" s="127" t="s">
+        <v>393</v>
+      </c>
+      <c r="B458" s="264" t="s">
+        <v>394</v>
+      </c>
+      <c r="C458" s="111">
+        <v>3</v>
+      </c>
+      <c r="D458" s="111"/>
+      <c r="E458" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="F458" s="567">
-        <v>160</v>
+      <c r="F458" s="111">
+        <v>100</v>
       </c>
       <c r="G458" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A458,Лист1!K:K)/$F458,0)</f>
@@ -50775,20 +50825,20 @@
     </row>
     <row r="459" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="340" t="s">
-        <v>395</v>
-      </c>
-      <c r="B459" s="263" t="s">
-        <v>396</v>
-      </c>
-      <c r="C459" s="112">
-        <v>3</v>
-      </c>
-      <c r="D459" s="112"/>
+        <v>602</v>
+      </c>
+      <c r="B459" s="556" t="s">
+        <v>600</v>
+      </c>
+      <c r="C459" s="567">
+        <v>1.5</v>
+      </c>
+      <c r="D459" s="567"/>
       <c r="E459" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F459" s="112">
-        <v>100</v>
+      <c r="F459" s="567">
+        <v>160</v>
       </c>
       <c r="G459" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A459,Лист1!K:K)/$F459,0)</f>
@@ -50817,20 +50867,20 @@
     </row>
     <row r="460" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="340" t="s">
-        <v>604</v>
+        <v>395</v>
       </c>
       <c r="B460" s="263" t="s">
-        <v>603</v>
-      </c>
-      <c r="C460" s="567">
-        <v>1.5</v>
-      </c>
-      <c r="D460" s="567"/>
+        <v>396</v>
+      </c>
+      <c r="C460" s="112">
+        <v>3</v>
+      </c>
+      <c r="D460" s="112"/>
       <c r="E460" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F460" s="567">
-        <v>160</v>
+      <c r="F460" s="112">
+        <v>100</v>
       </c>
       <c r="G460" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A460,Лист1!K:K)/$F460,0)</f>
@@ -50859,20 +50909,20 @@
     </row>
     <row r="461" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="340" t="s">
-        <v>825</v>
+        <v>604</v>
       </c>
       <c r="B461" s="263" t="s">
-        <v>720</v>
-      </c>
-      <c r="C461" s="112">
-        <v>3</v>
-      </c>
-      <c r="D461" s="112"/>
+        <v>603</v>
+      </c>
+      <c r="C461" s="567">
+        <v>1.5</v>
+      </c>
+      <c r="D461" s="567"/>
       <c r="E461" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F461" s="112">
-        <v>100</v>
+      <c r="F461" s="567">
+        <v>160</v>
       </c>
       <c r="G461" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A461,Лист1!K:K)/$F461,0)</f>
@@ -50901,20 +50951,20 @@
     </row>
     <row r="462" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="340" t="s">
-        <v>919</v>
+        <v>825</v>
       </c>
       <c r="B462" s="263" t="s">
-        <v>918</v>
-      </c>
-      <c r="C462" s="751">
-        <v>1.5</v>
-      </c>
-      <c r="D462" s="751"/>
+        <v>720</v>
+      </c>
+      <c r="C462" s="112">
+        <v>3</v>
+      </c>
+      <c r="D462" s="112"/>
       <c r="E462" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F462" s="751">
-        <v>160</v>
+      <c r="F462" s="112">
+        <v>100</v>
       </c>
       <c r="G462" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A462,Лист1!K:K)/$F462,0)</f>
@@ -50943,20 +50993,20 @@
     </row>
     <row r="463" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="340" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B463" s="263" t="s">
-        <v>921</v>
-      </c>
-      <c r="C463" s="112">
-        <v>3</v>
-      </c>
-      <c r="D463" s="112"/>
+        <v>918</v>
+      </c>
+      <c r="C463" s="751">
+        <v>1.5</v>
+      </c>
+      <c r="D463" s="751"/>
       <c r="E463" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F463" s="112">
-        <v>100</v>
+      <c r="F463" s="751">
+        <v>160</v>
       </c>
       <c r="G463" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A463,Лист1!K:K)/$F463,0)</f>
@@ -50985,22 +51035,20 @@
     </row>
     <row r="464" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="340" t="s">
-        <v>1134</v>
+        <v>920</v>
       </c>
       <c r="B464" s="263" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C464" s="876" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D464" s="876">
-        <v>80</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="C464" s="112">
+        <v>3</v>
+      </c>
+      <c r="D464" s="112"/>
       <c r="E464" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="F464" s="876">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="F464" s="112">
+        <v>100</v>
       </c>
       <c r="G464" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A464,Лист1!K:K)/$F464,0)</f>
@@ -51029,21 +51077,21 @@
     </row>
     <row r="465" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="340" t="s">
-        <v>752</v>
+        <v>1134</v>
       </c>
       <c r="B465" s="263" t="s">
-        <v>751</v>
-      </c>
-      <c r="C465" s="554" t="s">
-        <v>575</v>
-      </c>
-      <c r="D465" s="554">
-        <v>160</v>
+        <v>1133</v>
+      </c>
+      <c r="C465" s="876" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D465" s="876">
+        <v>80</v>
       </c>
       <c r="E465" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="F465" s="554">
+        <v>126</v>
+      </c>
+      <c r="F465" s="876">
         <v>72</v>
       </c>
       <c r="G465" s="468">
@@ -51073,10 +51121,10 @@
     </row>
     <row r="466" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="340" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B466" s="263" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C466" s="554" t="s">
         <v>575</v>
@@ -51087,7 +51135,7 @@
       <c r="E466" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F466" s="112">
+      <c r="F466" s="554">
         <v>72</v>
       </c>
       <c r="G466" s="468">
@@ -51117,22 +51165,22 @@
     </row>
     <row r="467" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="340" t="s">
-        <v>940</v>
+        <v>750</v>
       </c>
       <c r="B467" s="263" t="s">
-        <v>939</v>
-      </c>
-      <c r="C467" s="768" t="s">
-        <v>532</v>
-      </c>
-      <c r="D467" s="768">
-        <v>60</v>
+        <v>749</v>
+      </c>
+      <c r="C467" s="554" t="s">
+        <v>575</v>
+      </c>
+      <c r="D467" s="554">
+        <v>160</v>
       </c>
       <c r="E467" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F467" s="112">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="G467" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A467,Лист1!K:K)/$F467,0)</f>
@@ -51161,22 +51209,22 @@
     </row>
     <row r="468" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="340" t="s">
-        <v>1139</v>
+        <v>940</v>
       </c>
       <c r="B468" s="263" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C468" s="876" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D468" s="876">
-        <v>80</v>
+        <v>939</v>
+      </c>
+      <c r="C468" s="768" t="s">
+        <v>532</v>
+      </c>
+      <c r="D468" s="768">
+        <v>60</v>
       </c>
       <c r="E468" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F468" s="112">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="G468" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A468,Лист1!K:K)/$F468,0)</f>
@@ -51205,22 +51253,22 @@
     </row>
     <row r="469" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="340" t="s">
-        <v>942</v>
+        <v>1139</v>
       </c>
       <c r="B469" s="263" t="s">
-        <v>941</v>
-      </c>
-      <c r="C469" s="768" t="s">
-        <v>532</v>
-      </c>
-      <c r="D469" s="768">
-        <v>60</v>
+        <v>1136</v>
+      </c>
+      <c r="C469" s="876" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D469" s="876">
+        <v>80</v>
       </c>
       <c r="E469" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F469" s="112">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G469" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A469,Лист1!K:K)/$F469,0)</f>
@@ -51249,22 +51297,22 @@
     </row>
     <row r="470" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="340" t="s">
-        <v>577</v>
+        <v>942</v>
       </c>
       <c r="B470" s="263" t="s">
-        <v>576</v>
-      </c>
-      <c r="C470" s="554" t="s">
-        <v>194</v>
-      </c>
-      <c r="D470" s="554">
-        <v>6</v>
+        <v>941</v>
+      </c>
+      <c r="C470" s="768" t="s">
+        <v>532</v>
+      </c>
+      <c r="D470" s="768">
+        <v>60</v>
       </c>
       <c r="E470" s="127" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F470" s="112">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="G470" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A470,Лист1!K:K)/$F470,0)</f>
@@ -51293,20 +51341,22 @@
     </row>
     <row r="471" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="340" t="s">
-        <v>1310</v>
+        <v>577</v>
       </c>
       <c r="B471" s="263" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C471" s="112">
-        <v>3</v>
-      </c>
-      <c r="D471" s="112"/>
+        <v>576</v>
+      </c>
+      <c r="C471" s="554" t="s">
+        <v>194</v>
+      </c>
+      <c r="D471" s="554">
+        <v>6</v>
+      </c>
       <c r="E471" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F471" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G471" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A471,Лист1!K:K)/$F471,0)</f>
@@ -51335,22 +51385,20 @@
     </row>
     <row r="472" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="340" t="s">
-        <v>1204</v>
+        <v>1310</v>
       </c>
       <c r="B472" s="263" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C472" s="985" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D472" s="985">
-        <v>80</v>
-      </c>
+        <v>1311</v>
+      </c>
+      <c r="C472" s="112">
+        <v>3</v>
+      </c>
+      <c r="D472" s="112"/>
       <c r="E472" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F472" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G472" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A472,Лист1!K:K)/$F472,0)</f>
@@ -51379,22 +51427,22 @@
     </row>
     <row r="473" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="340" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="B473" s="263" t="s">
-        <v>985</v>
-      </c>
-      <c r="C473" s="798" t="s">
-        <v>984</v>
-      </c>
-      <c r="D473" s="798">
-        <v>15</v>
+        <v>1205</v>
+      </c>
+      <c r="C473" s="985" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D473" s="985">
+        <v>80</v>
       </c>
       <c r="E473" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F473" s="798">
-        <v>144</v>
+      <c r="F473" s="112">
+        <v>72</v>
       </c>
       <c r="G473" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A473,Лист1!K:K)/$F473,0)</f>
@@ -51423,20 +51471,22 @@
     </row>
     <row r="474" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="340" t="s">
-        <v>1166</v>
+        <v>983</v>
       </c>
       <c r="B474" s="263" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C474" s="915" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D474" s="915"/>
+        <v>985</v>
+      </c>
+      <c r="C474" s="798" t="s">
+        <v>984</v>
+      </c>
+      <c r="D474" s="798">
+        <v>15</v>
+      </c>
       <c r="E474" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F474" s="915">
-        <v>160</v>
+      <c r="F474" s="798">
+        <v>144</v>
       </c>
       <c r="G474" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A474,Лист1!K:K)/$F474,0)</f>
@@ -51465,19 +51515,19 @@
     </row>
     <row r="475" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="340" t="s">
-        <v>1092</v>
+        <v>1166</v>
       </c>
       <c r="B475" s="263" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C475" s="845" t="s">
-        <v>601</v>
-      </c>
-      <c r="D475" s="845"/>
+        <v>1167</v>
+      </c>
+      <c r="C475" s="915" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D475" s="915"/>
       <c r="E475" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="F475" s="845">
+        <v>62</v>
+      </c>
+      <c r="F475" s="915">
         <v>160</v>
       </c>
       <c r="G475" s="468">
@@ -51507,10 +51557,10 @@
     </row>
     <row r="476" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="340" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B476" s="263" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C476" s="845" t="s">
         <v>601</v>
@@ -51549,22 +51599,20 @@
     </row>
     <row r="477" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="340" t="s">
-        <v>1142</v>
+        <v>1093</v>
       </c>
       <c r="B477" s="263" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C477" s="876" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D477" s="876">
-        <v>80</v>
-      </c>
+        <v>1094</v>
+      </c>
+      <c r="C477" s="845" t="s">
+        <v>601</v>
+      </c>
+      <c r="D477" s="845"/>
       <c r="E477" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F477" s="876">
-        <v>72</v>
+      <c r="F477" s="845">
+        <v>160</v>
       </c>
       <c r="G477" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A477,Лист1!K:K)/$F477,0)</f>
@@ -51593,21 +51641,21 @@
     </row>
     <row r="478" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="340" t="s">
-        <v>1260</v>
+        <v>1142</v>
       </c>
       <c r="B478" s="263" t="s">
-        <v>902</v>
-      </c>
-      <c r="C478" s="749" t="s">
-        <v>194</v>
-      </c>
-      <c r="D478" s="749">
-        <v>8</v>
+        <v>1140</v>
+      </c>
+      <c r="C478" s="876" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D478" s="876">
+        <v>80</v>
       </c>
       <c r="E478" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F478" s="554">
+      <c r="F478" s="876">
         <v>72</v>
       </c>
       <c r="G478" s="468">
@@ -51637,20 +51685,22 @@
     </row>
     <row r="479" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="340" t="s">
-        <v>901</v>
+        <v>1260</v>
       </c>
       <c r="B479" s="263" t="s">
-        <v>900</v>
-      </c>
-      <c r="C479" s="749">
-        <v>3</v>
-      </c>
-      <c r="D479" s="749"/>
+        <v>902</v>
+      </c>
+      <c r="C479" s="749" t="s">
+        <v>194</v>
+      </c>
+      <c r="D479" s="749">
+        <v>8</v>
+      </c>
       <c r="E479" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F479" s="749">
-        <v>100</v>
+      <c r="F479" s="554">
+        <v>72</v>
       </c>
       <c r="G479" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A479,Лист1!K:K)/$F479,0)</f>
@@ -51679,22 +51729,20 @@
     </row>
     <row r="480" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="340" t="s">
-        <v>930</v>
+        <v>901</v>
       </c>
       <c r="B480" s="263" t="s">
-        <v>928</v>
-      </c>
-      <c r="C480" s="757" t="s">
-        <v>929</v>
-      </c>
-      <c r="D480" s="757">
-        <v>8</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="C480" s="749">
+        <v>3</v>
+      </c>
+      <c r="D480" s="749"/>
       <c r="E480" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F480" s="757">
-        <v>72</v>
+      <c r="F480" s="749">
+        <v>100</v>
       </c>
       <c r="G480" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A480,Лист1!K:K)/$F480,0)</f>
@@ -51723,20 +51771,22 @@
     </row>
     <row r="481" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="340" t="s">
-        <v>401</v>
+        <v>930</v>
       </c>
       <c r="B481" s="263" t="s">
-        <v>402</v>
-      </c>
-      <c r="C481" s="554">
-        <v>3</v>
-      </c>
-      <c r="D481" s="554"/>
+        <v>928</v>
+      </c>
+      <c r="C481" s="757" t="s">
+        <v>929</v>
+      </c>
+      <c r="D481" s="757">
+        <v>8</v>
+      </c>
       <c r="E481" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="F481" s="554">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="F481" s="757">
+        <v>72</v>
       </c>
       <c r="G481" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A481,Лист1!K:K)/$F481,0)</f>
@@ -51765,22 +51815,20 @@
     </row>
     <row r="482" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="340" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B482" s="263" t="s">
-        <v>404</v>
-      </c>
-      <c r="C482" s="567" t="s">
-        <v>194</v>
-      </c>
-      <c r="D482" s="567">
-        <v>8</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C482" s="554">
+        <v>3</v>
+      </c>
+      <c r="D482" s="554"/>
       <c r="E482" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F482" s="567">
-        <v>72</v>
+      <c r="F482" s="554">
+        <v>100</v>
       </c>
       <c r="G482" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A482,Лист1!K:K)/$F482,0)</f>
@@ -51809,21 +51857,21 @@
     </row>
     <row r="483" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="340" t="s">
-        <v>866</v>
-      </c>
-      <c r="B483" s="733" t="s">
-        <v>865</v>
-      </c>
-      <c r="C483" s="734" t="s">
+        <v>403</v>
+      </c>
+      <c r="B483" s="263" t="s">
+        <v>404</v>
+      </c>
+      <c r="C483" s="567" t="s">
         <v>194</v>
       </c>
-      <c r="D483" s="734">
+      <c r="D483" s="567">
         <v>8</v>
       </c>
-      <c r="E483" s="735" t="s">
-        <v>62</v>
-      </c>
-      <c r="F483" s="734">
+      <c r="E483" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="F483" s="567">
         <v>72</v>
       </c>
       <c r="G483" s="468">
@@ -51853,16 +51901,16 @@
     </row>
     <row r="484" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="340" t="s">
-        <v>461</v>
+        <v>866</v>
       </c>
       <c r="B484" s="733" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C484" s="734" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D484" s="734">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E484" s="735" t="s">
         <v>62</v>
@@ -51895,23 +51943,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:12" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="340" t="s">
-        <v>462</v>
-      </c>
-      <c r="B485" s="556" t="s">
-        <v>463</v>
-      </c>
-      <c r="C485" s="567" t="s">
-        <v>74</v>
-      </c>
-      <c r="D485" s="567">
-        <v>14</v>
-      </c>
-      <c r="E485" s="536" t="s">
-        <v>64</v>
-      </c>
-      <c r="F485" s="567">
+        <v>461</v>
+      </c>
+      <c r="B485" s="733" t="s">
+        <v>864</v>
+      </c>
+      <c r="C485" s="734" t="s">
+        <v>182</v>
+      </c>
+      <c r="D485" s="734">
+        <v>4</v>
+      </c>
+      <c r="E485" s="735" t="s">
+        <v>62</v>
+      </c>
+      <c r="F485" s="734">
         <v>72</v>
       </c>
       <c r="G485" s="468">
@@ -51940,19 +51988,23 @@
       </c>
     </row>
     <row r="486" spans="1:12" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="340"/>
+      <c r="A486" s="340" t="s">
+        <v>462</v>
+      </c>
       <c r="B486" s="556" t="s">
-        <v>605</v>
-      </c>
-      <c r="C486" s="567">
-        <v>1.5</v>
-      </c>
-      <c r="D486" s="567"/>
+        <v>463</v>
+      </c>
+      <c r="C486" s="567" t="s">
+        <v>74</v>
+      </c>
+      <c r="D486" s="567">
+        <v>14</v>
+      </c>
       <c r="E486" s="536" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="F486" s="567">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="G486" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A486,Лист1!K:K)/$F486,0)</f>
@@ -51979,22 +52031,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="340" t="s">
-        <v>372</v>
-      </c>
-      <c r="B487" s="263" t="s">
-        <v>160</v>
-      </c>
-      <c r="C487" s="112">
-        <v>2.5</v>
-      </c>
-      <c r="D487" s="112"/>
-      <c r="E487" s="127" t="s">
+    <row r="487" spans="1:12" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="340"/>
+      <c r="B487" s="556" t="s">
+        <v>605</v>
+      </c>
+      <c r="C487" s="567">
+        <v>1.5</v>
+      </c>
+      <c r="D487" s="567"/>
+      <c r="E487" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F487" s="112">
-        <v>100</v>
+      <c r="F487" s="567">
+        <v>140</v>
       </c>
       <c r="G487" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A487,Лист1!K:K)/$F487,0)</f>
@@ -52023,20 +52073,20 @@
     </row>
     <row r="488" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="340" t="s">
-        <v>609</v>
+        <v>372</v>
       </c>
       <c r="B488" s="263" t="s">
-        <v>608</v>
-      </c>
-      <c r="C488" s="567">
-        <v>1.5</v>
-      </c>
-      <c r="D488" s="567"/>
-      <c r="E488" s="536" t="s">
+        <v>160</v>
+      </c>
+      <c r="C488" s="112">
+        <v>2.5</v>
+      </c>
+      <c r="D488" s="112"/>
+      <c r="E488" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F488" s="567">
-        <v>160</v>
+      <c r="F488" s="112">
+        <v>100</v>
       </c>
       <c r="G488" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A488,Лист1!K:K)/$F488,0)</f>
@@ -52065,20 +52115,20 @@
     </row>
     <row r="489" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="340" t="s">
-        <v>823</v>
+        <v>609</v>
       </c>
       <c r="B489" s="263" t="s">
-        <v>822</v>
-      </c>
-      <c r="C489" s="639">
-        <v>4</v>
-      </c>
-      <c r="D489" s="639"/>
+        <v>608</v>
+      </c>
+      <c r="C489" s="567">
+        <v>1.5</v>
+      </c>
+      <c r="D489" s="567"/>
       <c r="E489" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F489" s="639">
-        <v>72</v>
+      <c r="F489" s="567">
+        <v>160</v>
       </c>
       <c r="G489" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A489,Лист1!K:K)/$F489,0)</f>
@@ -52106,21 +52156,21 @@
       </c>
     </row>
     <row r="490" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="691" t="s">
-        <v>373</v>
+      <c r="A490" s="340" t="s">
+        <v>823</v>
       </c>
       <c r="B490" s="263" t="s">
-        <v>173</v>
-      </c>
-      <c r="C490" s="112">
-        <v>2.5</v>
-      </c>
-      <c r="D490" s="112"/>
-      <c r="E490" s="127" t="s">
+        <v>822</v>
+      </c>
+      <c r="C490" s="639">
+        <v>4</v>
+      </c>
+      <c r="D490" s="639"/>
+      <c r="E490" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F490" s="112">
-        <v>100</v>
+      <c r="F490" s="639">
+        <v>72</v>
       </c>
       <c r="G490" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A490,Лист1!K:K)/$F490,0)</f>
@@ -52149,20 +52199,20 @@
     </row>
     <row r="491" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="691" t="s">
-        <v>606</v>
+        <v>373</v>
       </c>
       <c r="B491" s="263" t="s">
-        <v>607</v>
+        <v>173</v>
       </c>
       <c r="C491" s="112">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D491" s="112"/>
       <c r="E491" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F491" s="112">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G491" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A491,Лист1!K:K)/$F491,0)</f>
@@ -52191,20 +52241,20 @@
     </row>
     <row r="492" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="691" t="s">
-        <v>824</v>
+        <v>606</v>
       </c>
       <c r="B492" s="263" t="s">
-        <v>821</v>
+        <v>607</v>
       </c>
       <c r="C492" s="112">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D492" s="112"/>
       <c r="E492" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F492" s="112">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G492" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A492,Лист1!K:K)/$F492,0)</f>
@@ -52233,17 +52283,15 @@
     </row>
     <row r="493" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="691" t="s">
-        <v>1203</v>
+        <v>824</v>
       </c>
       <c r="B493" s="263" t="s">
-        <v>974</v>
-      </c>
-      <c r="C493" s="274" t="s">
-        <v>536</v>
-      </c>
-      <c r="D493" s="112">
-        <v>160</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="C493" s="112">
+        <v>4</v>
+      </c>
+      <c r="D493" s="112"/>
       <c r="E493" s="127" t="s">
         <v>126</v>
       </c>
@@ -52277,20 +52325,22 @@
     </row>
     <row r="494" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="691" t="s">
-        <v>858</v>
-      </c>
-      <c r="B494" s="719" t="s">
-        <v>859</v>
-      </c>
-      <c r="C494" s="274">
-        <v>1.5</v>
-      </c>
-      <c r="D494" s="112"/>
+        <v>1203</v>
+      </c>
+      <c r="B494" s="263" t="s">
+        <v>974</v>
+      </c>
+      <c r="C494" s="274" t="s">
+        <v>536</v>
+      </c>
+      <c r="D494" s="112">
+        <v>160</v>
+      </c>
       <c r="E494" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F494" s="112">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G494" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A494,Лист1!K:K)/$F494,0)</f>
@@ -52319,20 +52369,20 @@
     </row>
     <row r="495" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="691" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B495" s="263" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C495" s="1037">
-        <v>4</v>
-      </c>
-      <c r="D495" s="1037"/>
-      <c r="E495" s="536" t="s">
+        <v>858</v>
+      </c>
+      <c r="B495" s="719" t="s">
+        <v>859</v>
+      </c>
+      <c r="C495" s="274">
+        <v>1.5</v>
+      </c>
+      <c r="D495" s="112"/>
+      <c r="E495" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F495" s="1037">
-        <v>72</v>
+      <c r="F495" s="112">
+        <v>160</v>
       </c>
       <c r="G495" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A495,Лист1!K:K)/$F495,0)</f>
@@ -52360,22 +52410,20 @@
       </c>
     </row>
     <row r="496" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="340" t="s">
-        <v>374</v>
+      <c r="A496" s="691" t="s">
+        <v>1308</v>
       </c>
       <c r="B496" s="263" t="s">
-        <v>193</v>
-      </c>
-      <c r="C496" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D496" s="112">
-        <v>5</v>
-      </c>
-      <c r="E496" s="127" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C496" s="1037">
+        <v>4</v>
+      </c>
+      <c r="D496" s="1037"/>
+      <c r="E496" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F496" s="112">
+      <c r="F496" s="1037">
         <v>72</v>
       </c>
       <c r="G496" s="468">
@@ -52405,10 +52453,10 @@
     </row>
     <row r="497" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="340" t="s">
-        <v>727</v>
+        <v>374</v>
       </c>
       <c r="B497" s="263" t="s">
-        <v>726</v>
+        <v>193</v>
       </c>
       <c r="C497" s="112" t="s">
         <v>194</v>
@@ -52449,22 +52497,22 @@
     </row>
     <row r="498" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="340" t="s">
-        <v>490</v>
+        <v>727</v>
       </c>
       <c r="B498" s="263" t="s">
-        <v>489</v>
+        <v>726</v>
       </c>
       <c r="C498" s="112" t="s">
-        <v>491</v>
+        <v>194</v>
       </c>
       <c r="D498" s="112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E498" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F498" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G498" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A498,Лист1!K:K)/$F498,0)</f>
@@ -52493,13 +52541,13 @@
     </row>
     <row r="499" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="340" t="s">
-        <v>1129</v>
+        <v>490</v>
       </c>
       <c r="B499" s="263" t="s">
-        <v>1130</v>
+        <v>489</v>
       </c>
       <c r="C499" s="112" t="s">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="D499" s="112">
         <v>8</v>
@@ -52508,7 +52556,7 @@
         <v>126</v>
       </c>
       <c r="F499" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G499" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A499,Лист1!K:K)/$F499,0)</f>
@@ -52537,13 +52585,13 @@
     </row>
     <row r="500" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="340" t="s">
-        <v>492</v>
+        <v>1129</v>
       </c>
       <c r="B500" s="263" t="s">
-        <v>493</v>
+        <v>1130</v>
       </c>
       <c r="C500" s="112" t="s">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="D500" s="112">
         <v>8</v>
@@ -52552,7 +52600,7 @@
         <v>126</v>
       </c>
       <c r="F500" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G500" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A500,Лист1!K:K)/$F500,0)</f>
@@ -52581,13 +52629,13 @@
     </row>
     <row r="501" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="340" t="s">
-        <v>1132</v>
+        <v>492</v>
       </c>
       <c r="B501" s="263" t="s">
-        <v>1131</v>
+        <v>493</v>
       </c>
       <c r="C501" s="112" t="s">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="D501" s="112">
         <v>8</v>
@@ -52596,7 +52644,7 @@
         <v>126</v>
       </c>
       <c r="F501" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G501" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A501,Лист1!K:K)/$F501,0)</f>
@@ -52625,15 +52673,17 @@
     </row>
     <row r="502" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="340" t="s">
-        <v>495</v>
+        <v>1132</v>
       </c>
       <c r="B502" s="263" t="s">
-        <v>494</v>
-      </c>
-      <c r="C502" s="112">
-        <v>3.3</v>
-      </c>
-      <c r="D502" s="112"/>
+        <v>1131</v>
+      </c>
+      <c r="C502" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="D502" s="112">
+        <v>8</v>
+      </c>
       <c r="E502" s="127" t="s">
         <v>126</v>
       </c>
@@ -52667,10 +52717,10 @@
     </row>
     <row r="503" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="340" t="s">
-        <v>855</v>
+        <v>495</v>
       </c>
       <c r="B503" s="263" t="s">
-        <v>854</v>
+        <v>494</v>
       </c>
       <c r="C503" s="112">
         <v>3.3</v>
@@ -52709,10 +52759,10 @@
     </row>
     <row r="504" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="340" t="s">
-        <v>497</v>
+        <v>855</v>
       </c>
       <c r="B504" s="263" t="s">
-        <v>496</v>
+        <v>854</v>
       </c>
       <c r="C504" s="112">
         <v>3.3</v>
@@ -52751,17 +52801,15 @@
     </row>
     <row r="505" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="340" t="s">
-        <v>375</v>
+        <v>497</v>
       </c>
       <c r="B505" s="263" t="s">
-        <v>168</v>
-      </c>
-      <c r="C505" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="D505" s="112">
-        <v>200</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C505" s="112">
+        <v>3.3</v>
+      </c>
+      <c r="D505" s="112"/>
       <c r="E505" s="127" t="s">
         <v>126</v>
       </c>
@@ -52795,10 +52843,10 @@
     </row>
     <row r="506" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="340" t="s">
-        <v>614</v>
+        <v>375</v>
       </c>
       <c r="B506" s="263" t="s">
-        <v>613</v>
+        <v>168</v>
       </c>
       <c r="C506" s="112" t="s">
         <v>166</v>
@@ -52839,16 +52887,16 @@
     </row>
     <row r="507" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="340" t="s">
-        <v>904</v>
-      </c>
-      <c r="B507" s="682" t="s">
-        <v>903</v>
+        <v>614</v>
+      </c>
+      <c r="B507" s="263" t="s">
+        <v>613</v>
       </c>
       <c r="C507" s="112" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D507" s="112">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E507" s="127" t="s">
         <v>126</v>
@@ -52883,20 +52931,22 @@
     </row>
     <row r="508" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="340" t="s">
-        <v>906</v>
-      </c>
-      <c r="B508" s="750" t="s">
-        <v>905</v>
-      </c>
-      <c r="C508" s="112">
-        <v>2</v>
-      </c>
-      <c r="D508" s="112"/>
+        <v>904</v>
+      </c>
+      <c r="B508" s="682" t="s">
+        <v>903</v>
+      </c>
+      <c r="C508" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="D508" s="112">
+        <v>8</v>
+      </c>
       <c r="E508" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F508" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G508" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A508,Лист1!K:K)/$F508,0)</f>
@@ -52925,22 +52975,20 @@
     </row>
     <row r="509" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="340" t="s">
-        <v>1004</v>
+        <v>906</v>
       </c>
       <c r="B509" s="750" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C509" s="112" t="s">
-        <v>723</v>
-      </c>
-      <c r="D509" s="112">
-        <v>6</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="C509" s="112">
+        <v>2</v>
+      </c>
+      <c r="D509" s="112"/>
       <c r="E509" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F509" s="112">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G509" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A509,Лист1!K:K)/$F509,0)</f>
@@ -52969,10 +53017,10 @@
     </row>
     <row r="510" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="340" t="s">
-        <v>724</v>
-      </c>
-      <c r="B510" s="682" t="s">
-        <v>722</v>
+        <v>1004</v>
+      </c>
+      <c r="B510" s="750" t="s">
+        <v>1005</v>
       </c>
       <c r="C510" s="112" t="s">
         <v>723</v>
@@ -53013,20 +53061,22 @@
     </row>
     <row r="511" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="340" t="s">
-        <v>913</v>
-      </c>
-      <c r="B511" s="750" t="s">
-        <v>912</v>
-      </c>
-      <c r="C511" s="112">
-        <v>4</v>
-      </c>
-      <c r="D511" s="112"/>
+        <v>724</v>
+      </c>
+      <c r="B511" s="682" t="s">
+        <v>722</v>
+      </c>
+      <c r="C511" s="112" t="s">
+        <v>723</v>
+      </c>
+      <c r="D511" s="112">
+        <v>6</v>
+      </c>
       <c r="E511" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F511" s="112">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="G511" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A511,Лист1!K:K)/$F511,0)</f>
@@ -53055,17 +53105,15 @@
     </row>
     <row r="512" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="340" t="s">
-        <v>917</v>
-      </c>
-      <c r="B512" s="263" t="s">
-        <v>916</v>
-      </c>
-      <c r="C512" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D512" s="112">
-        <v>6</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="B512" s="750" t="s">
+        <v>912</v>
+      </c>
+      <c r="C512" s="112">
+        <v>4</v>
+      </c>
+      <c r="D512" s="112"/>
       <c r="E512" s="127" t="s">
         <v>126</v>
       </c>
@@ -53098,21 +53146,23 @@
       </c>
     </row>
     <row r="513" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="338" t="s">
-        <v>711</v>
+      <c r="A513" s="340" t="s">
+        <v>917</v>
       </c>
       <c r="B513" s="263" t="s">
-        <v>709</v>
-      </c>
-      <c r="C513" s="112">
-        <v>1.5</v>
-      </c>
-      <c r="D513" s="112"/>
+        <v>916</v>
+      </c>
+      <c r="C513" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D513" s="112">
+        <v>6</v>
+      </c>
       <c r="E513" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F513" s="112">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="G513" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A513,Лист1!K:K)/$F513,0)</f>
@@ -53141,22 +53191,20 @@
     </row>
     <row r="514" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514" s="338" t="s">
-        <v>915</v>
+        <v>711</v>
       </c>
       <c r="B514" s="263" t="s">
-        <v>914</v>
-      </c>
-      <c r="C514" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D514" s="112">
-        <v>6</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="C514" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="D514" s="112"/>
       <c r="E514" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F514" s="112">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="G514" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A514,Лист1!K:K)/$F514,0)</f>
@@ -53185,20 +53233,22 @@
     </row>
     <row r="515" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="338" t="s">
-        <v>712</v>
+        <v>915</v>
       </c>
       <c r="B515" s="263" t="s">
-        <v>710</v>
-      </c>
-      <c r="C515" s="112">
-        <v>1.5</v>
-      </c>
-      <c r="D515" s="112"/>
+        <v>914</v>
+      </c>
+      <c r="C515" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D515" s="112">
+        <v>6</v>
+      </c>
       <c r="E515" s="127" t="s">
         <v>126</v>
       </c>
       <c r="F515" s="112">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="G515" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A515,Лист1!K:K)/$F515,0)</f>
@@ -53225,15 +53275,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="340"/>
-      <c r="B516" s="314" t="s">
-        <v>97</v>
-      </c>
-      <c r="C516" s="255"/>
-      <c r="D516" s="553"/>
-      <c r="E516" s="138"/>
-      <c r="F516" s="553"/>
+    <row r="516" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="338" t="s">
+        <v>712</v>
+      </c>
+      <c r="B516" s="263" t="s">
+        <v>710</v>
+      </c>
+      <c r="C516" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="D516" s="112"/>
+      <c r="E516" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="F516" s="112">
+        <v>144</v>
+      </c>
       <c r="G516" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A516,Лист1!K:K)/$F516,0)</f>
         <v>0</v>
@@ -53259,25 +53317,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="340" t="s">
-        <v>669</v>
-      </c>
-      <c r="B517" s="264" t="s">
-        <v>207</v>
-      </c>
-      <c r="C517" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="D517" s="111">
-        <v>9</v>
-      </c>
-      <c r="E517" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="F517" s="485">
-        <v>64</v>
-      </c>
+    <row r="517" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="340"/>
+      <c r="B517" s="314" t="s">
+        <v>97</v>
+      </c>
+      <c r="C517" s="255"/>
+      <c r="D517" s="553"/>
+      <c r="E517" s="138"/>
+      <c r="F517" s="553"/>
       <c r="G517" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A517,Лист1!K:K)/$F517,0)</f>
         <v>0</v>
@@ -53303,23 +53351,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518" s="340" t="s">
-        <v>668</v>
-      </c>
-      <c r="B518" s="683" t="s">
-        <v>208</v>
-      </c>
-      <c r="C518" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="B518" s="264" t="s">
+        <v>207</v>
+      </c>
+      <c r="C518" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="D518" s="113">
+      <c r="D518" s="111">
         <v>9</v>
       </c>
-      <c r="E518" s="117" t="s">
+      <c r="E518" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="F518" s="487">
+      <c r="F518" s="485">
         <v>64</v>
       </c>
       <c r="G518" s="468">
@@ -53347,15 +53395,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="340"/>
-      <c r="B519" s="861" t="s">
-        <v>174</v>
-      </c>
-      <c r="C519" s="477"/>
-      <c r="D519" s="111"/>
-      <c r="E519" s="111"/>
-      <c r="F519" s="111"/>
+    <row r="519" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="340" t="s">
+        <v>668</v>
+      </c>
+      <c r="B519" s="683" t="s">
+        <v>208</v>
+      </c>
+      <c r="C519" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D519" s="113">
+        <v>9</v>
+      </c>
+      <c r="E519" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="F519" s="487">
+        <v>64</v>
+      </c>
       <c r="G519" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A519,Лист1!K:K)/$F519,0)</f>
         <v>0</v>
@@ -53382,24 +53440,14 @@
       </c>
     </row>
     <row r="520" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="340" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B520" s="863" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C520" s="737" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D520" s="845">
-        <v>6</v>
-      </c>
-      <c r="E520" s="536" t="s">
-        <v>126</v>
-      </c>
-      <c r="F520" s="739">
-        <v>100</v>
-      </c>
+      <c r="A520" s="340"/>
+      <c r="B520" s="861" t="s">
+        <v>174</v>
+      </c>
+      <c r="C520" s="477"/>
+      <c r="D520" s="111"/>
+      <c r="E520" s="111"/>
+      <c r="F520" s="111"/>
       <c r="G520" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A520,Лист1!K:K)/$F520,0)</f>
         <v>0</v>
@@ -53427,13 +53475,13 @@
     </row>
     <row r="521" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="340" t="s">
-        <v>868</v>
-      </c>
-      <c r="B521" s="848" t="s">
-        <v>867</v>
+        <v>1089</v>
+      </c>
+      <c r="B521" s="863" t="s">
+        <v>1088</v>
       </c>
       <c r="C521" s="737" t="s">
-        <v>79</v>
+        <v>1090</v>
       </c>
       <c r="D521" s="845">
         <v>6</v>
@@ -53442,7 +53490,7 @@
         <v>126</v>
       </c>
       <c r="F521" s="739">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G521" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A521,Лист1!K:K)/$F521,0)</f>
@@ -53471,21 +53519,21 @@
     </row>
     <row r="522" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="340" t="s">
-        <v>869</v>
-      </c>
-      <c r="B522" s="740" t="s">
-        <v>721</v>
-      </c>
-      <c r="C522" s="436" t="s">
+        <v>868</v>
+      </c>
+      <c r="B522" s="848" t="s">
+        <v>867</v>
+      </c>
+      <c r="C522" s="737" t="s">
         <v>79</v>
       </c>
-      <c r="D522" s="112">
+      <c r="D522" s="845">
         <v>6</v>
       </c>
-      <c r="E522" s="127" t="s">
+      <c r="E522" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F522" s="486">
+      <c r="F522" s="739">
         <v>144</v>
       </c>
       <c r="G522" s="468">
@@ -53515,21 +53563,21 @@
     </row>
     <row r="523" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="340" t="s">
-        <v>997</v>
-      </c>
-      <c r="B523" s="862" t="s">
-        <v>996</v>
-      </c>
-      <c r="C523" s="737" t="s">
+        <v>869</v>
+      </c>
+      <c r="B523" s="740" t="s">
+        <v>721</v>
+      </c>
+      <c r="C523" s="436" t="s">
         <v>79</v>
       </c>
-      <c r="D523" s="845">
+      <c r="D523" s="112">
         <v>6</v>
       </c>
-      <c r="E523" s="536" t="s">
+      <c r="E523" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F523" s="739">
+      <c r="F523" s="486">
         <v>144</v>
       </c>
       <c r="G523" s="468">
@@ -53559,10 +53607,10 @@
     </row>
     <row r="524" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="340" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B524" s="862" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C524" s="737" t="s">
         <v>79</v>
@@ -53603,10 +53651,10 @@
     </row>
     <row r="525" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="340" t="s">
-        <v>871</v>
+        <v>995</v>
       </c>
       <c r="B525" s="862" t="s">
-        <v>872</v>
+        <v>994</v>
       </c>
       <c r="C525" s="737" t="s">
         <v>79</v>
@@ -53645,23 +53693,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="340" t="s">
-        <v>873</v>
-      </c>
-      <c r="B526" s="849" t="s">
-        <v>874</v>
-      </c>
-      <c r="C526" s="439" t="s">
+        <v>871</v>
+      </c>
+      <c r="B526" s="862" t="s">
+        <v>872</v>
+      </c>
+      <c r="C526" s="737" t="s">
         <v>79</v>
       </c>
-      <c r="D526" s="113">
+      <c r="D526" s="845">
         <v>6</v>
       </c>
-      <c r="E526" s="117" t="s">
+      <c r="E526" s="536" t="s">
         <v>126</v>
       </c>
-      <c r="F526" s="487">
+      <c r="F526" s="739">
         <v>144</v>
       </c>
       <c r="G526" s="468">
@@ -53690,14 +53738,24 @@
       </c>
     </row>
     <row r="527" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="340"/>
-      <c r="B527" s="314" t="s">
-        <v>99</v>
-      </c>
-      <c r="C527" s="255"/>
-      <c r="D527" s="553"/>
-      <c r="E527" s="138"/>
-      <c r="F527" s="553"/>
+      <c r="A527" s="340" t="s">
+        <v>873</v>
+      </c>
+      <c r="B527" s="849" t="s">
+        <v>874</v>
+      </c>
+      <c r="C527" s="439" t="s">
+        <v>79</v>
+      </c>
+      <c r="D527" s="113">
+        <v>6</v>
+      </c>
+      <c r="E527" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F527" s="487">
+        <v>144</v>
+      </c>
       <c r="G527" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A527,Лист1!K:K)/$F527,0)</f>
         <v>0</v>
@@ -53723,25 +53781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="340" t="s">
-        <v>586</v>
-      </c>
-      <c r="B528" s="264" t="s">
-        <v>619</v>
-      </c>
-      <c r="C528" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="D528" s="111">
-        <v>10</v>
-      </c>
-      <c r="E528" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="F528" s="111">
-        <v>105</v>
-      </c>
+    <row r="528" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="340"/>
+      <c r="B528" s="314" t="s">
+        <v>99</v>
+      </c>
+      <c r="C528" s="255"/>
+      <c r="D528" s="553"/>
+      <c r="E528" s="138"/>
+      <c r="F528" s="553"/>
       <c r="G528" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A528,Лист1!K:K)/$F528,0)</f>
         <v>0</v>
@@ -53769,22 +53817,22 @@
     </row>
     <row r="529" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="340" t="s">
-        <v>812</v>
-      </c>
-      <c r="B529" s="678" t="s">
-        <v>191</v>
-      </c>
-      <c r="C529" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D529" s="112">
-        <v>4</v>
-      </c>
-      <c r="E529" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="F529" s="112">
-        <v>100</v>
+        <v>586</v>
+      </c>
+      <c r="B529" s="264" t="s">
+        <v>619</v>
+      </c>
+      <c r="C529" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D529" s="111">
+        <v>10</v>
+      </c>
+      <c r="E529" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="F529" s="111">
+        <v>105</v>
       </c>
       <c r="G529" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A529,Лист1!K:K)/$F529,0)</f>
@@ -53813,10 +53861,10 @@
     </row>
     <row r="530" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="340" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="B530" s="678" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C530" s="112" t="s">
         <v>182</v>
@@ -53857,10 +53905,10 @@
     </row>
     <row r="531" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="340" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B531" s="678" t="s">
-        <v>456</v>
+        <v>203</v>
       </c>
       <c r="C531" s="112" t="s">
         <v>182</v>
@@ -53901,22 +53949,22 @@
     </row>
     <row r="532" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="340" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B532" s="716" t="s">
-        <v>856</v>
-      </c>
-      <c r="C532" s="296" t="s">
-        <v>194</v>
+        <v>794</v>
+      </c>
+      <c r="B532" s="678" t="s">
+        <v>456</v>
+      </c>
+      <c r="C532" s="112" t="s">
+        <v>182</v>
       </c>
       <c r="D532" s="112">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E532" s="127" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F532" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G532" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A532,Лист1!K:K)/$F532,0)</f>
@@ -53945,10 +53993,10 @@
     </row>
     <row r="533" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="340" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B533" s="738" t="s">
-        <v>1116</v>
+        <v>1034</v>
+      </c>
+      <c r="B533" s="716" t="s">
+        <v>856</v>
       </c>
       <c r="C533" s="296" t="s">
         <v>194</v>
@@ -53989,22 +54037,22 @@
     </row>
     <row r="534" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="340" t="s">
-        <v>796</v>
-      </c>
-      <c r="B534" s="678" t="s">
-        <v>797</v>
-      </c>
-      <c r="C534" s="112" t="s">
-        <v>182</v>
+        <v>1115</v>
+      </c>
+      <c r="B534" s="738" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C534" s="296" t="s">
+        <v>194</v>
       </c>
       <c r="D534" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E534" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F534" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G534" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A534,Лист1!K:K)/$F534,0)</f>
@@ -54033,17 +54081,19 @@
     </row>
     <row r="535" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="340" t="s">
-        <v>1062</v>
+        <v>796</v>
       </c>
       <c r="B535" s="678" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C535" s="112">
+        <v>797</v>
+      </c>
+      <c r="C535" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D535" s="112">
         <v>4</v>
       </c>
-      <c r="D535" s="112"/>
       <c r="E535" s="127" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F535" s="112">
         <v>100</v>
@@ -54075,22 +54125,20 @@
     </row>
     <row r="536" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="340" t="s">
-        <v>620</v>
-      </c>
-      <c r="B536" s="263" t="s">
-        <v>553</v>
-      </c>
-      <c r="C536" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="D536" s="112">
-        <v>10</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="B536" s="678" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C536" s="112">
+        <v>4</v>
+      </c>
+      <c r="D536" s="112"/>
       <c r="E536" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F536" s="112">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G536" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A536,Лист1!K:K)/$F536,0)</f>
@@ -54119,10 +54167,10 @@
     </row>
     <row r="537" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="340" t="s">
-        <v>934</v>
+        <v>620</v>
       </c>
       <c r="B537" s="263" t="s">
-        <v>933</v>
+        <v>553</v>
       </c>
       <c r="C537" s="112" t="s">
         <v>189</v>
@@ -54134,7 +54182,7 @@
         <v>62</v>
       </c>
       <c r="F537" s="112">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G537" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A537,Лист1!K:K)/$F537,0)</f>
@@ -54163,13 +54211,13 @@
     </row>
     <row r="538" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="340" t="s">
-        <v>986</v>
+        <v>934</v>
       </c>
       <c r="B538" s="263" t="s">
-        <v>987</v>
+        <v>933</v>
       </c>
       <c r="C538" s="112" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D538" s="112">
         <v>10</v>
@@ -54207,22 +54255,22 @@
     </row>
     <row r="539" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="340" t="s">
-        <v>813</v>
+        <v>986</v>
       </c>
       <c r="B539" s="263" t="s">
-        <v>814</v>
+        <v>987</v>
       </c>
       <c r="C539" s="112" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="D539" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E539" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F539" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G539" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A539,Лист1!K:K)/$F539,0)</f>
@@ -54251,15 +54299,17 @@
     </row>
     <row r="540" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="340" t="s">
-        <v>1058</v>
+        <v>813</v>
       </c>
       <c r="B540" s="263" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C540" s="112">
+        <v>814</v>
+      </c>
+      <c r="C540" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D540" s="112">
         <v>4</v>
       </c>
-      <c r="D540" s="112"/>
       <c r="E540" s="127" t="s">
         <v>62</v>
       </c>
@@ -54293,22 +54343,20 @@
     </row>
     <row r="541" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="340" t="s">
-        <v>992</v>
+        <v>1058</v>
       </c>
       <c r="B541" s="263" t="s">
-        <v>993</v>
-      </c>
-      <c r="C541" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D541" s="112">
-        <v>10</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="C541" s="112">
+        <v>4</v>
+      </c>
+      <c r="D541" s="112"/>
       <c r="E541" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F541" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G541" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A541,Лист1!K:K)/$F541,0)</f>
@@ -54337,22 +54385,22 @@
     </row>
     <row r="542" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="340" t="s">
-        <v>1299</v>
+        <v>992</v>
       </c>
       <c r="B542" s="263" t="s">
-        <v>564</v>
+        <v>993</v>
       </c>
       <c r="C542" s="112" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="D542" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E542" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F542" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G542" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A542,Лист1!K:K)/$F542,0)</f>
@@ -54381,15 +54429,17 @@
     </row>
     <row r="543" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="340" t="s">
-        <v>1060</v>
+        <v>1299</v>
       </c>
       <c r="B543" s="263" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C543" s="112">
+        <v>564</v>
+      </c>
+      <c r="C543" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D543" s="112">
         <v>4</v>
       </c>
-      <c r="D543" s="112"/>
       <c r="E543" s="127" t="s">
         <v>62</v>
       </c>
@@ -54423,17 +54473,15 @@
     </row>
     <row r="544" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="340" t="s">
-        <v>1334</v>
+        <v>1060</v>
       </c>
       <c r="B544" s="263" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C544" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D544" s="112">
+        <v>1061</v>
+      </c>
+      <c r="C544" s="112">
         <v>4</v>
       </c>
+      <c r="D544" s="112"/>
       <c r="E544" s="127" t="s">
         <v>62</v>
       </c>
@@ -54467,15 +54515,17 @@
     </row>
     <row r="545" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="340" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B545" s="263" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C545" s="112">
+        <v>1335</v>
+      </c>
+      <c r="C545" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D545" s="112">
         <v>4</v>
       </c>
-      <c r="D545" s="112"/>
       <c r="E545" s="127" t="s">
         <v>62</v>
       </c>
@@ -54509,22 +54559,20 @@
     </row>
     <row r="546" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="340" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B546" s="678" t="s">
-        <v>77</v>
-      </c>
-      <c r="C546" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D546" s="112">
-        <v>10</v>
-      </c>
+        <v>1332</v>
+      </c>
+      <c r="B546" s="263" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C546" s="112">
+        <v>4</v>
+      </c>
+      <c r="D546" s="112"/>
       <c r="E546" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F546" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G546" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A546,Лист1!K:K)/$F546,0)</f>
@@ -54553,20 +54601,22 @@
     </row>
     <row r="547" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="340" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="B547" s="678" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C547" s="112">
-        <v>4</v>
-      </c>
-      <c r="D547" s="112"/>
+        <v>77</v>
+      </c>
+      <c r="C547" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D547" s="112">
+        <v>10</v>
+      </c>
       <c r="E547" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F547" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G547" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A547,Лист1!K:K)/$F547,0)</f>
@@ -54595,21 +54645,19 @@
     </row>
     <row r="548" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="340" t="s">
-        <v>783</v>
-      </c>
-      <c r="B548" s="684" t="s">
-        <v>167</v>
-      </c>
-      <c r="C548" s="565" t="s">
-        <v>182</v>
-      </c>
-      <c r="D548" s="565">
+        <v>1064</v>
+      </c>
+      <c r="B548" s="678" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C548" s="112">
         <v>4</v>
       </c>
-      <c r="E548" s="566" t="s">
-        <v>126</v>
-      </c>
-      <c r="F548" s="565">
+      <c r="D548" s="112"/>
+      <c r="E548" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="F548" s="112">
         <v>100</v>
       </c>
       <c r="G548" s="468">
@@ -54639,20 +54687,22 @@
     </row>
     <row r="549" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="340" t="s">
-        <v>376</v>
+        <v>783</v>
       </c>
       <c r="B549" s="684" t="s">
         <v>167</v>
       </c>
-      <c r="C549" s="638" t="s">
-        <v>125</v>
-      </c>
-      <c r="D549" s="638"/>
-      <c r="E549" s="638" t="s">
-        <v>62</v>
-      </c>
-      <c r="F549" s="638">
-        <v>96</v>
+      <c r="C549" s="565" t="s">
+        <v>182</v>
+      </c>
+      <c r="D549" s="565">
+        <v>4</v>
+      </c>
+      <c r="E549" s="566" t="s">
+        <v>126</v>
+      </c>
+      <c r="F549" s="565">
+        <v>100</v>
       </c>
       <c r="G549" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A549,Лист1!K:K)/$F549,0)</f>
@@ -54681,19 +54731,19 @@
     </row>
     <row r="550" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="340" t="s">
-        <v>418</v>
-      </c>
-      <c r="B550" s="685" t="s">
-        <v>417</v>
-      </c>
-      <c r="C550" s="296" t="s">
+        <v>376</v>
+      </c>
+      <c r="B550" s="684" t="s">
+        <v>167</v>
+      </c>
+      <c r="C550" s="638" t="s">
         <v>125</v>
       </c>
-      <c r="D550" s="296"/>
-      <c r="E550" s="296" t="s">
+      <c r="D550" s="638"/>
+      <c r="E550" s="638" t="s">
         <v>62</v>
       </c>
-      <c r="F550" s="112">
+      <c r="F550" s="638">
         <v>96</v>
       </c>
       <c r="G550" s="468">
@@ -54723,22 +54773,20 @@
     </row>
     <row r="551" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="340" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B551" s="685" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C551" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D551" s="296">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D551" s="296"/>
       <c r="E551" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F551" s="296">
-        <v>72</v>
+      <c r="F551" s="112">
+        <v>96</v>
       </c>
       <c r="G551" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A551,Лист1!K:K)/$F551,0)</f>
@@ -54767,20 +54815,22 @@
     </row>
     <row r="552" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="340" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B552" s="685" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C552" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="D552" s="296"/>
+        <v>194</v>
+      </c>
+      <c r="D552" s="296">
+        <v>12</v>
+      </c>
       <c r="E552" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F552" s="112">
-        <v>96</v>
+      <c r="F552" s="296">
+        <v>72</v>
       </c>
       <c r="G552" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A552,Лист1!K:K)/$F552,0)</f>
@@ -54809,22 +54859,20 @@
     </row>
     <row r="553" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="340" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B553" s="685" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C553" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D553" s="296">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D553" s="296"/>
       <c r="E553" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F553" s="296">
-        <v>72</v>
+      <c r="F553" s="112">
+        <v>96</v>
       </c>
       <c r="G553" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A553,Лист1!K:K)/$F553,0)</f>
@@ -54853,20 +54901,22 @@
     </row>
     <row r="554" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="340" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B554" s="685" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C554" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="D554" s="296"/>
+        <v>194</v>
+      </c>
+      <c r="D554" s="296">
+        <v>12</v>
+      </c>
       <c r="E554" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F554" s="112">
-        <v>96</v>
+      <c r="F554" s="296">
+        <v>72</v>
       </c>
       <c r="G554" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A554,Лист1!K:K)/$F554,0)</f>
@@ -54895,22 +54945,20 @@
     </row>
     <row r="555" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="340" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B555" s="685" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C555" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D555" s="296">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D555" s="296"/>
       <c r="E555" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F555" s="296">
-        <v>72</v>
+      <c r="F555" s="112">
+        <v>96</v>
       </c>
       <c r="G555" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A555,Лист1!K:K)/$F555,0)</f>
@@ -54939,20 +54987,22 @@
     </row>
     <row r="556" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="340" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B556" s="685" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C556" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="D556" s="296"/>
+        <v>194</v>
+      </c>
+      <c r="D556" s="296">
+        <v>12</v>
+      </c>
       <c r="E556" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F556" s="112">
-        <v>96</v>
+      <c r="F556" s="296">
+        <v>72</v>
       </c>
       <c r="G556" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A556,Лист1!K:K)/$F556,0)</f>
@@ -54981,22 +55031,20 @@
     </row>
     <row r="557" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="340" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B557" s="685" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C557" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D557" s="296">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D557" s="296"/>
       <c r="E557" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F557" s="296">
-        <v>72</v>
+      <c r="F557" s="112">
+        <v>96</v>
       </c>
       <c r="G557" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A557,Лист1!K:K)/$F557,0)</f>
@@ -55025,20 +55073,22 @@
     </row>
     <row r="558" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="340" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B558" s="685" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C558" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="D558" s="296"/>
+        <v>194</v>
+      </c>
+      <c r="D558" s="296">
+        <v>12</v>
+      </c>
       <c r="E558" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F558" s="112">
-        <v>96</v>
+      <c r="F558" s="296">
+        <v>72</v>
       </c>
       <c r="G558" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A558,Лист1!K:K)/$F558,0)</f>
@@ -55067,22 +55117,20 @@
     </row>
     <row r="559" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="340" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B559" s="685" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C559" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D559" s="296">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D559" s="296"/>
       <c r="E559" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F559" s="296">
-        <v>72</v>
+      <c r="F559" s="112">
+        <v>96</v>
       </c>
       <c r="G559" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A559,Лист1!K:K)/$F559,0)</f>
@@ -55111,20 +55159,22 @@
     </row>
     <row r="560" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="340" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B560" s="722" t="s">
-        <v>842</v>
-      </c>
-      <c r="C560" s="274">
-        <v>4</v>
-      </c>
-      <c r="D560" s="112"/>
-      <c r="E560" s="127" t="s">
+        <v>436</v>
+      </c>
+      <c r="B560" s="685" t="s">
+        <v>435</v>
+      </c>
+      <c r="C560" s="296" t="s">
+        <v>194</v>
+      </c>
+      <c r="D560" s="296">
+        <v>12</v>
+      </c>
+      <c r="E560" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="F560" s="112">
-        <v>100</v>
+      <c r="F560" s="296">
+        <v>72</v>
       </c>
       <c r="G560" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A560,Лист1!K:K)/$F560,0)</f>
@@ -55153,12 +55203,12 @@
     </row>
     <row r="561" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="340" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B561" s="723" t="s">
-        <v>843</v>
-      </c>
-      <c r="C561" s="112">
+        <v>1035</v>
+      </c>
+      <c r="B561" s="722" t="s">
+        <v>842</v>
+      </c>
+      <c r="C561" s="274">
         <v>4</v>
       </c>
       <c r="D561" s="112"/>
@@ -55195,17 +55245,15 @@
     </row>
     <row r="562" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="340" t="s">
-        <v>925</v>
+        <v>1036</v>
       </c>
       <c r="B562" s="723" t="s">
-        <v>924</v>
-      </c>
-      <c r="C562" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D562" s="112">
+        <v>843</v>
+      </c>
+      <c r="C562" s="112">
         <v>4</v>
       </c>
+      <c r="D562" s="112"/>
       <c r="E562" s="127" t="s">
         <v>62</v>
       </c>
@@ -55239,15 +55287,17 @@
     </row>
     <row r="563" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="340" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="B563" s="723" t="s">
-        <v>908</v>
-      </c>
-      <c r="C563" s="112">
+        <v>924</v>
+      </c>
+      <c r="C563" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D563" s="112">
         <v>4</v>
       </c>
-      <c r="D563" s="112"/>
       <c r="E563" s="127" t="s">
         <v>62</v>
       </c>
@@ -55281,10 +55331,10 @@
     </row>
     <row r="564" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="340" t="s">
-        <v>1037</v>
+        <v>909</v>
       </c>
       <c r="B564" s="723" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="C564" s="112">
         <v>4</v>
@@ -55323,22 +55373,20 @@
     </row>
     <row r="565" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="340" t="s">
-        <v>846</v>
-      </c>
-      <c r="B565" s="263" t="s">
-        <v>847</v>
-      </c>
-      <c r="C565" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="D565" s="112">
-        <v>10</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="B565" s="723" t="s">
+        <v>844</v>
+      </c>
+      <c r="C565" s="112">
+        <v>4</v>
+      </c>
+      <c r="D565" s="112"/>
       <c r="E565" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F565" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G565" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A565,Лист1!K:K)/$F565,0)</f>
@@ -55367,13 +55415,13 @@
     </row>
     <row r="566" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="340" t="s">
-        <v>1003</v>
+        <v>846</v>
       </c>
       <c r="B566" s="263" t="s">
-        <v>1002</v>
+        <v>847</v>
       </c>
       <c r="C566" s="112" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D566" s="112">
         <v>10</v>
@@ -55411,22 +55459,22 @@
     </row>
     <row r="567" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="340" t="s">
-        <v>798</v>
-      </c>
-      <c r="B567" s="678" t="s">
-        <v>76</v>
+        <v>1003</v>
+      </c>
+      <c r="B567" s="263" t="s">
+        <v>1002</v>
       </c>
       <c r="C567" s="112" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="D567" s="112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E567" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F567" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G567" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A567,Лист1!K:K)/$F567,0)</f>
@@ -55455,17 +55503,19 @@
     </row>
     <row r="568" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="340" t="s">
-        <v>1068</v>
+        <v>798</v>
       </c>
       <c r="B568" s="678" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C568" s="112">
+        <v>76</v>
+      </c>
+      <c r="C568" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D568" s="112">
         <v>4</v>
       </c>
-      <c r="D568" s="112"/>
       <c r="E568" s="127" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F568" s="112">
         <v>100</v>
@@ -55497,22 +55547,20 @@
     </row>
     <row r="569" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="340" t="s">
-        <v>835</v>
+        <v>1068</v>
       </c>
       <c r="B569" s="678" t="s">
-        <v>836</v>
-      </c>
-      <c r="C569" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D569" s="112">
-        <v>10</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="C569" s="112">
+        <v>4</v>
+      </c>
+      <c r="D569" s="112"/>
       <c r="E569" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F569" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G569" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A569,Лист1!K:K)/$F569,0)</f>
@@ -55541,10 +55589,10 @@
     </row>
     <row r="570" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="340" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B570" s="678" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C570" s="296" t="s">
         <v>194</v>
@@ -55585,10 +55633,10 @@
     </row>
     <row r="571" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="340" t="s">
-        <v>1151</v>
+        <v>834</v>
       </c>
       <c r="B571" s="678" t="s">
-        <v>1152</v>
+        <v>833</v>
       </c>
       <c r="C571" s="296" t="s">
         <v>194</v>
@@ -55629,20 +55677,22 @@
     </row>
     <row r="572" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="340" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B572" s="678" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C572" s="296" t="s">
-        <v>202</v>
-      </c>
-      <c r="D572" s="112"/>
+        <v>194</v>
+      </c>
+      <c r="D572" s="112">
+        <v>10</v>
+      </c>
       <c r="E572" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F572" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G572" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A572,Лист1!K:K)/$F572,0)</f>
@@ -55671,10 +55721,10 @@
     </row>
     <row r="573" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="340" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="B573" s="678" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C573" s="296" t="s">
         <v>202</v>
@@ -55713,22 +55763,20 @@
     </row>
     <row r="574" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="340" t="s">
-        <v>1021</v>
+        <v>1164</v>
       </c>
       <c r="B574" s="678" t="s">
-        <v>1020</v>
+        <v>1165</v>
       </c>
       <c r="C574" s="296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D574" s="112">
-        <v>10</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D574" s="112"/>
       <c r="E574" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F574" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G574" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A574,Лист1!K:K)/$F574,0)</f>
@@ -55757,10 +55805,10 @@
     </row>
     <row r="575" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="340" t="s">
-        <v>899</v>
+        <v>1021</v>
       </c>
       <c r="B575" s="678" t="s">
-        <v>883</v>
+        <v>1020</v>
       </c>
       <c r="C575" s="296" t="s">
         <v>194</v>
@@ -55801,20 +55849,22 @@
     </row>
     <row r="576" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="340" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="B576" s="678" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C576" s="296" t="s">
-        <v>202</v>
-      </c>
-      <c r="D576" s="112"/>
+        <v>194</v>
+      </c>
+      <c r="D576" s="112">
+        <v>10</v>
+      </c>
       <c r="E576" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F576" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G576" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A576,Лист1!K:K)/$F576,0)</f>
@@ -55843,22 +55893,20 @@
     </row>
     <row r="577" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="340" t="s">
-        <v>990</v>
-      </c>
-      <c r="B577" s="263" t="s">
-        <v>991</v>
-      </c>
-      <c r="C577" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="D577" s="112">
-        <v>10</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="B577" s="678" t="s">
+        <v>885</v>
+      </c>
+      <c r="C577" s="296" t="s">
+        <v>202</v>
+      </c>
+      <c r="D577" s="112"/>
       <c r="E577" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F577" s="112">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G577" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A577,Лист1!K:K)/$F577,0)</f>
@@ -55887,13 +55935,13 @@
     </row>
     <row r="578" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="340" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B578" s="687" t="s">
-        <v>73</v>
+        <v>990</v>
+      </c>
+      <c r="B578" s="263" t="s">
+        <v>991</v>
       </c>
       <c r="C578" s="112" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D578" s="112">
         <v>10</v>
@@ -55931,20 +55979,22 @@
     </row>
     <row r="579" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="340" t="s">
-        <v>1066</v>
+        <v>1006</v>
       </c>
       <c r="B579" s="687" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C579" s="112">
-        <v>4</v>
-      </c>
-      <c r="D579" s="112"/>
+        <v>73</v>
+      </c>
+      <c r="C579" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D579" s="112">
+        <v>10</v>
+      </c>
       <c r="E579" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F579" s="112">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G579" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A579,Лист1!K:K)/$F579,0)</f>
@@ -55971,21 +56021,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580" s="340" t="s">
-        <v>789</v>
-      </c>
-      <c r="B580" s="679" t="s">
-        <v>73</v>
-      </c>
-      <c r="C580" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D580" s="112">
+        <v>1066</v>
+      </c>
+      <c r="B580" s="687" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C580" s="112">
         <v>4</v>
       </c>
+      <c r="D580" s="112"/>
       <c r="E580" s="127" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F580" s="112">
         <v>100</v>
@@ -56016,14 +56064,24 @@
       </c>
     </row>
     <row r="581" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="340"/>
-      <c r="B581" s="314" t="s">
+      <c r="A581" s="340" t="s">
+        <v>789</v>
+      </c>
+      <c r="B581" s="679" t="s">
+        <v>73</v>
+      </c>
+      <c r="C581" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D581" s="112">
+        <v>4</v>
+      </c>
+      <c r="E581" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="F581" s="112">
         <v>100</v>
       </c>
-      <c r="C581" s="255"/>
-      <c r="D581" s="553"/>
-      <c r="E581" s="138"/>
-      <c r="F581" s="553"/>
       <c r="G581" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A581,Лист1!K:K)/$F581,0)</f>
         <v>0</v>
@@ -56049,23 +56107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="340" t="s">
-        <v>406</v>
-      </c>
-      <c r="B582" s="264" t="s">
-        <v>405</v>
-      </c>
-      <c r="C582" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="D582" s="111"/>
-      <c r="E582" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="F582" s="485">
-        <v>80</v>
-      </c>
+    <row r="582" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="340"/>
+      <c r="B582" s="314" t="s">
+        <v>100</v>
+      </c>
+      <c r="C582" s="255"/>
+      <c r="D582" s="553"/>
+      <c r="E582" s="138"/>
+      <c r="F582" s="553"/>
       <c r="G582" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A582,Лист1!K:K)/$F582,0)</f>
         <v>0</v>
@@ -56093,19 +56143,19 @@
     </row>
     <row r="583" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="340" t="s">
-        <v>408</v>
-      </c>
-      <c r="B583" s="263" t="s">
-        <v>407</v>
-      </c>
-      <c r="C583" s="112" t="s">
+        <v>406</v>
+      </c>
+      <c r="B583" s="264" t="s">
+        <v>405</v>
+      </c>
+      <c r="C583" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D583" s="112"/>
-      <c r="E583" s="127" t="s">
+      <c r="D583" s="111"/>
+      <c r="E583" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="F583" s="486">
+      <c r="F583" s="485">
         <v>80</v>
       </c>
       <c r="G583" s="468">
@@ -56135,22 +56185,20 @@
     </row>
     <row r="584" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="340" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B584" s="263" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C584" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D584" s="112">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D584" s="112"/>
       <c r="E584" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F584" s="486">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G584" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A584,Лист1!K:K)/$F584,0)</f>
@@ -56179,20 +56227,22 @@
     </row>
     <row r="585" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="340" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B585" s="263" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C585" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="D585" s="112"/>
+        <v>79</v>
+      </c>
+      <c r="D585" s="112">
+        <v>12</v>
+      </c>
       <c r="E585" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F585" s="486">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G585" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A585,Лист1!K:K)/$F585,0)</f>
@@ -56221,22 +56271,20 @@
     </row>
     <row r="586" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="340" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B586" s="263" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C586" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D586" s="112">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D586" s="112"/>
       <c r="E586" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F586" s="486">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G586" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A586,Лист1!K:K)/$F586,0)</f>
@@ -56265,22 +56313,22 @@
     </row>
     <row r="587" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="340" t="s">
-        <v>469</v>
-      </c>
-      <c r="B587" s="686" t="s">
-        <v>459</v>
+        <v>413</v>
+      </c>
+      <c r="B587" s="263" t="s">
+        <v>414</v>
       </c>
       <c r="C587" s="112" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D587" s="112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E587" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F587" s="486">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G587" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A587,Лист1!K:K)/$F587,0)</f>
@@ -56309,10 +56357,10 @@
     </row>
     <row r="588" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="340" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B588" s="686" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C588" s="112" t="s">
         <v>118</v>
@@ -56353,22 +56401,22 @@
     </row>
     <row r="589" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="340" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="B589" s="686" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="C589" s="112" t="s">
-        <v>551</v>
+        <v>118</v>
       </c>
       <c r="D589" s="112">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E589" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F589" s="486">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G589" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A589,Лист1!K:K)/$F589,0)</f>
@@ -56396,21 +56444,23 @@
       </c>
     </row>
     <row r="590" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="340">
-        <v>31571</v>
+      <c r="A590" s="340" t="s">
+        <v>552</v>
       </c>
       <c r="B590" s="686" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C590" s="112" t="s">
-        <v>549</v>
-      </c>
-      <c r="D590" s="112"/>
+        <v>551</v>
+      </c>
+      <c r="D590" s="112">
+        <v>8</v>
+      </c>
       <c r="E590" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F590" s="486">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="G590" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A590,Лист1!K:K)/$F590,0)</f>
@@ -56438,23 +56488,21 @@
       </c>
     </row>
     <row r="591" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="340" t="s">
-        <v>1254</v>
+      <c r="A591" s="340">
+        <v>31571</v>
       </c>
       <c r="B591" s="686" t="s">
-        <v>1253</v>
+        <v>546</v>
       </c>
       <c r="C591" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="D591" s="112">
-        <v>8</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="D591" s="112"/>
       <c r="E591" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F591" s="486">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="G591" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A591,Лист1!K:K)/$F591,0)</f>
@@ -56483,10 +56531,10 @@
     </row>
     <row r="592" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A592" s="340" t="s">
-        <v>1014</v>
+        <v>1254</v>
       </c>
       <c r="B592" s="686" t="s">
-        <v>1015</v>
+        <v>1253</v>
       </c>
       <c r="C592" s="112" t="s">
         <v>54</v>
@@ -56527,22 +56575,22 @@
     </row>
     <row r="593" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="340" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
       <c r="B593" s="686" t="s">
-        <v>857</v>
+        <v>1015</v>
       </c>
       <c r="C593" s="112" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D593" s="112">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E593" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F593" s="486">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G593" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A593,Лист1!K:K)/$F593,0)</f>
@@ -56571,22 +56619,22 @@
     </row>
     <row r="594" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A594" s="340" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="B594" s="686" t="s">
-        <v>1016</v>
+        <v>857</v>
       </c>
       <c r="C594" s="112" t="s">
         <v>74</v>
       </c>
       <c r="D594" s="112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E594" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F594" s="486">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G594" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A594,Лист1!K:K)/$F594,0)</f>
@@ -56613,24 +56661,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="340" t="s">
-        <v>886</v>
+        <v>1017</v>
       </c>
       <c r="B595" s="686" t="s">
-        <v>887</v>
-      </c>
-      <c r="C595" s="112">
-        <v>250</v>
+        <v>1016</v>
+      </c>
+      <c r="C595" s="112" t="s">
+        <v>74</v>
       </c>
       <c r="D595" s="112">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E595" s="127" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F595" s="486">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G595" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A595,Лист1!K:K)/$F595,0)</f>
@@ -56659,10 +56707,10 @@
     </row>
     <row r="596" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="340" t="s">
-        <v>1118</v>
+        <v>886</v>
       </c>
       <c r="B596" s="686" t="s">
-        <v>1117</v>
+        <v>887</v>
       </c>
       <c r="C596" s="112">
         <v>250</v>
@@ -56703,10 +56751,10 @@
     </row>
     <row r="597" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="340" t="s">
-        <v>938</v>
+        <v>1118</v>
       </c>
       <c r="B597" s="686" t="s">
-        <v>935</v>
+        <v>1117</v>
       </c>
       <c r="C597" s="112">
         <v>250</v>
@@ -56715,10 +56763,10 @@
         <v>12</v>
       </c>
       <c r="E597" s="127" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F597" s="486">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G597" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A597,Лист1!K:K)/$F597,0)</f>
@@ -56747,10 +56795,10 @@
     </row>
     <row r="598" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="340" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B598" s="686" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C598" s="112">
         <v>250</v>
@@ -56789,22 +56837,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="340">
-        <v>31573</v>
+    <row r="599" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="340" t="s">
+        <v>937</v>
       </c>
       <c r="B599" s="686" t="s">
-        <v>544</v>
-      </c>
-      <c r="C599" s="112" t="s">
-        <v>545</v>
-      </c>
-      <c r="D599" s="112"/>
+        <v>936</v>
+      </c>
+      <c r="C599" s="112">
+        <v>250</v>
+      </c>
+      <c r="D599" s="112">
+        <v>12</v>
+      </c>
       <c r="E599" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F599" s="486">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="G599" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A599,Лист1!K:K)/$F599,0)</f>
@@ -56833,13 +56883,13 @@
     </row>
     <row r="600" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="340">
-        <v>31570</v>
+        <v>31573</v>
       </c>
       <c r="B600" s="686" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C600" s="112" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D600" s="112"/>
       <c r="E600" s="127" t="s">
@@ -56874,23 +56924,21 @@
       </c>
     </row>
     <row r="601" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="340" t="s">
-        <v>671</v>
-      </c>
-      <c r="B601" s="556" t="s">
-        <v>672</v>
-      </c>
-      <c r="C601" s="601" t="s">
-        <v>72</v>
-      </c>
-      <c r="D601" s="601">
-        <v>9</v>
-      </c>
-      <c r="E601" s="534" t="s">
+      <c r="A601" s="340">
+        <v>31570</v>
+      </c>
+      <c r="B601" s="686" t="s">
+        <v>542</v>
+      </c>
+      <c r="C601" s="112" t="s">
+        <v>543</v>
+      </c>
+      <c r="D601" s="112"/>
+      <c r="E601" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F601" s="584">
-        <v>64</v>
+      <c r="F601" s="486">
+        <v>204</v>
       </c>
       <c r="G601" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A601,Лист1!K:K)/$F601,0)</f>
@@ -56919,20 +56967,22 @@
     </row>
     <row r="602" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A602" s="340" t="s">
-        <v>954</v>
+        <v>671</v>
       </c>
       <c r="B602" s="556" t="s">
-        <v>958</v>
-      </c>
-      <c r="C602" s="777" t="s">
-        <v>55</v>
-      </c>
-      <c r="D602" s="777"/>
-      <c r="E602" s="127" t="s">
+        <v>672</v>
+      </c>
+      <c r="C602" s="601" t="s">
+        <v>72</v>
+      </c>
+      <c r="D602" s="601">
+        <v>9</v>
+      </c>
+      <c r="E602" s="534" t="s">
         <v>62</v>
       </c>
       <c r="F602" s="584">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G602" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A602,Лист1!K:K)/$F602,0)</f>
@@ -56961,20 +57011,20 @@
     </row>
     <row r="603" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="340" t="s">
-        <v>377</v>
-      </c>
-      <c r="B603" s="263" t="s">
-        <v>120</v>
-      </c>
-      <c r="C603" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="D603" s="112"/>
+        <v>954</v>
+      </c>
+      <c r="B603" s="556" t="s">
+        <v>958</v>
+      </c>
+      <c r="C603" s="777" t="s">
+        <v>55</v>
+      </c>
+      <c r="D603" s="777"/>
       <c r="E603" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F603" s="486">
-        <v>64</v>
+      <c r="F603" s="584">
+        <v>144</v>
       </c>
       <c r="G603" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A603,Лист1!K:K)/$F603,0)</f>
@@ -57003,22 +57053,20 @@
     </row>
     <row r="604" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A604" s="340" t="s">
-        <v>634</v>
+        <v>377</v>
       </c>
       <c r="B604" s="263" t="s">
-        <v>635</v>
+        <v>120</v>
       </c>
       <c r="C604" s="112" t="s">
-        <v>551</v>
-      </c>
-      <c r="D604" s="112">
-        <v>20</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D604" s="112"/>
       <c r="E604" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F604" s="486">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G604" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A604,Лист1!K:K)/$F604,0)</f>
@@ -57047,22 +57095,22 @@
     </row>
     <row r="605" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="340" t="s">
-        <v>675</v>
+        <v>634</v>
       </c>
       <c r="B605" s="263" t="s">
-        <v>116</v>
-      </c>
-      <c r="C605" s="601" t="s">
-        <v>72</v>
-      </c>
-      <c r="D605" s="601">
-        <v>9</v>
-      </c>
-      <c r="E605" s="534" t="s">
+        <v>635</v>
+      </c>
+      <c r="C605" s="112" t="s">
+        <v>551</v>
+      </c>
+      <c r="D605" s="112">
+        <v>20</v>
+      </c>
+      <c r="E605" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F605" s="584">
-        <v>64</v>
+      <c r="F605" s="486">
+        <v>30</v>
       </c>
       <c r="G605" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A605,Лист1!K:K)/$F605,0)</f>
@@ -57091,20 +57139,22 @@
     </row>
     <row r="606" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="340" t="s">
-        <v>956</v>
-      </c>
-      <c r="B606" s="556" t="s">
-        <v>957</v>
-      </c>
-      <c r="C606" s="777" t="s">
-        <v>55</v>
-      </c>
-      <c r="D606" s="777"/>
+        <v>675</v>
+      </c>
+      <c r="B606" s="263" t="s">
+        <v>116</v>
+      </c>
+      <c r="C606" s="601" t="s">
+        <v>72</v>
+      </c>
+      <c r="D606" s="601">
+        <v>9</v>
+      </c>
       <c r="E606" s="534" t="s">
         <v>62</v>
       </c>
       <c r="F606" s="584">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G606" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A606,Лист1!K:K)/$F606,0)</f>
@@ -57133,20 +57183,20 @@
     </row>
     <row r="607" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A607" s="340" t="s">
-        <v>378</v>
-      </c>
-      <c r="B607" s="263" t="s">
-        <v>673</v>
-      </c>
-      <c r="C607" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="D607" s="112"/>
-      <c r="E607" s="127" t="s">
+        <v>956</v>
+      </c>
+      <c r="B607" s="556" t="s">
+        <v>957</v>
+      </c>
+      <c r="C607" s="777" t="s">
+        <v>55</v>
+      </c>
+      <c r="D607" s="777"/>
+      <c r="E607" s="534" t="s">
         <v>62</v>
       </c>
-      <c r="F607" s="486">
-        <v>64</v>
+      <c r="F607" s="584">
+        <v>144</v>
       </c>
       <c r="G607" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A607,Лист1!K:K)/$F607,0)</f>
@@ -57175,22 +57225,20 @@
     </row>
     <row r="608" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="340" t="s">
-        <v>1144</v>
+        <v>378</v>
       </c>
       <c r="B608" s="263" t="s">
-        <v>1143</v>
+        <v>673</v>
       </c>
       <c r="C608" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="D608" s="112">
-        <v>20</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D608" s="112"/>
       <c r="E608" s="127" t="s">
         <v>62</v>
       </c>
       <c r="F608" s="486">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G608" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A608,Лист1!K:K)/$F608,0)</f>
@@ -57219,20 +57267,22 @@
     </row>
     <row r="609" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="340" t="s">
-        <v>1268</v>
+        <v>1144</v>
       </c>
       <c r="B609" s="263" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C609" s="877" t="s">
-        <v>55</v>
-      </c>
-      <c r="D609" s="877"/>
-      <c r="E609" s="534" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C609" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="D609" s="112">
+        <v>20</v>
+      </c>
+      <c r="E609" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F609" s="584">
-        <v>144</v>
+      <c r="F609" s="486">
+        <v>30</v>
       </c>
       <c r="G609" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A609,Лист1!K:K)/$F609,0)</f>
@@ -57261,22 +57311,20 @@
     </row>
     <row r="610" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="340" t="s">
-        <v>379</v>
+        <v>1268</v>
       </c>
       <c r="B610" s="263" t="s">
-        <v>115</v>
-      </c>
-      <c r="C610" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="D610" s="112">
-        <v>20</v>
-      </c>
-      <c r="E610" s="127" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C610" s="877" t="s">
+        <v>55</v>
+      </c>
+      <c r="D610" s="877"/>
+      <c r="E610" s="534" t="s">
         <v>62</v>
       </c>
-      <c r="F610" s="486">
-        <v>30</v>
+      <c r="F610" s="584">
+        <v>144</v>
       </c>
       <c r="G610" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A610,Лист1!K:K)/$F610,0)</f>
@@ -57305,22 +57353,22 @@
     </row>
     <row r="611" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="340" t="s">
-        <v>670</v>
-      </c>
-      <c r="B611" s="687" t="s">
+        <v>379</v>
+      </c>
+      <c r="B611" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="C611" s="601" t="s">
+      <c r="C611" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="D611" s="601">
-        <v>9</v>
-      </c>
-      <c r="E611" s="534" t="s">
+      <c r="D611" s="112">
+        <v>20</v>
+      </c>
+      <c r="E611" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F611" s="584">
-        <v>64</v>
+      <c r="F611" s="486">
+        <v>30</v>
       </c>
       <c r="G611" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A611,Лист1!K:K)/$F611,0)</f>
@@ -57348,21 +57396,23 @@
       </c>
     </row>
     <row r="612" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="780" t="s">
-        <v>960</v>
+      <c r="A612" s="340" t="s">
+        <v>670</v>
       </c>
       <c r="B612" s="687" t="s">
-        <v>959</v>
-      </c>
-      <c r="C612" s="868" t="s">
-        <v>55</v>
-      </c>
-      <c r="D612" s="868"/>
-      <c r="E612" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C612" s="601" t="s">
+        <v>72</v>
+      </c>
+      <c r="D612" s="601">
+        <v>9</v>
+      </c>
+      <c r="E612" s="534" t="s">
         <v>62</v>
       </c>
       <c r="F612" s="584">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G612" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A612,Лист1!K:K)/$F612,0)</f>
@@ -57389,22 +57439,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:12" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="692" t="s">
-        <v>380</v>
-      </c>
-      <c r="B613" s="688" t="s">
-        <v>674</v>
-      </c>
-      <c r="C613" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="D613" s="113"/>
-      <c r="E613" s="117" t="s">
+    <row r="613" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="780" t="s">
+        <v>960</v>
+      </c>
+      <c r="B613" s="687" t="s">
+        <v>959</v>
+      </c>
+      <c r="C613" s="868" t="s">
+        <v>55</v>
+      </c>
+      <c r="D613" s="868"/>
+      <c r="E613" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F613" s="487">
-        <v>64</v>
+      <c r="F613" s="584">
+        <v>144</v>
       </c>
       <c r="G613" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A613,Лист1!K:K)/$F613,0)</f>
@@ -57428,6 +57478,48 @@
       </c>
       <c r="L613" s="468">
         <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A613,Лист1!P:P)/$F613,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="692" t="s">
+        <v>380</v>
+      </c>
+      <c r="B614" s="688" t="s">
+        <v>674</v>
+      </c>
+      <c r="C614" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D614" s="113"/>
+      <c r="E614" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="F614" s="487">
+        <v>64</v>
+      </c>
+      <c r="G614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!K:K)/$F614,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!L:L)/$F614,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!M:M)/$F614,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!N:N)/$F614,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!O:O)/$F614,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L614" s="468">
+        <f>IFERROR(SUMIF(Лист1!$A:$A,Лист3!$A614,Лист1!P:P)/$F614,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -57438,288 +57530,293 @@
     <mergeCell ref="D274:D282"/>
     <mergeCell ref="D283:D290"/>
   </mergeCells>
-  <conditionalFormatting sqref="M17:EP18 M322:EP328 M20:EP27 M601:EP613 M212:EP235 M255:EP255 M428:EP431 M525:EP540 M181:EP210 M577:EP581 M433:EP436 M465:EP471 M439:EP443 M138:EP145 M348:EP382 M122:EP135 M385:EP397 M447:EP461 M542:EP543 M53:EP59 M330:EP330 M31:EP51 M574:EP574 M69:EP77 M108:EP109 M111:EP111 M113:EP120 M80:EP106 M473:EP520 M237:EP242 M147:EP176 M257:EP258 M408:EP424 M245:EP248 M260:EP319 G2:EP6 M9:EP15 M7:EP7 G496:L543 G472:L494 G383:L398 G400:L404 G7:L381 G546:L613 M546:EP570 G408:L470">
-    <cfRule type="cellIs" dxfId="60" priority="252" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M17:EP18 M322:EP328 M20:EP27 M602:EP614 M212:EP235 M255:EP255 M429:EP432 M526:EP541 M181:EP210 M578:EP582 M434:EP437 M466:EP472 M440:EP444 M138:EP145 M348:EP382 M122:EP135 M385:EP397 M448:EP462 M543:EP544 M53:EP59 M330:EP330 M31:EP51 M575:EP575 M69:EP77 M108:EP109 M111:EP111 M113:EP120 M80:EP106 M474:EP521 M237:EP242 M147:EP176 M257:EP258 M408:EP425 M245:EP248 M260:EP319 G2:EP6 M9:EP15 M7:EP7 G497:L544 G473:L495 G383:L398 G400:L404 G7:L381 G547:L614 M547:EP571 G408:L417 G419:L471">
+    <cfRule type="cellIs" dxfId="61" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320:EP321">
-    <cfRule type="cellIs" dxfId="59" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M582:EP591 M599:EP600 M593:EP594">
+  <conditionalFormatting sqref="M583:EP592 M600:EP601 M594:EP595">
+    <cfRule type="cellIs" dxfId="59" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:EP16">
     <cfRule type="cellIs" dxfId="58" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:EP16">
-    <cfRule type="cellIs" dxfId="57" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M331:EP333 M335:EP336 M339:EP343 M345:EP347">
-    <cfRule type="cellIs" dxfId="56" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:EP19">
-    <cfRule type="cellIs" dxfId="55" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:EP68">
-    <cfRule type="cellIs" dxfId="54" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60:EP64">
+    <cfRule type="cellIs" dxfId="54" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M211:EP211">
     <cfRule type="cellIs" dxfId="53" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M211:EP211">
-    <cfRule type="cellIs" dxfId="52" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M136:EP137">
-    <cfRule type="cellIs" dxfId="51" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249:EP254">
-    <cfRule type="cellIs" dxfId="50" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:EP66">
+    <cfRule type="cellIs" dxfId="50" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M177:EP180">
     <cfRule type="cellIs" dxfId="49" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M177:EP180">
+  <conditionalFormatting sqref="M329:EP329">
     <cfRule type="cellIs" dxfId="48" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M329:EP329">
-    <cfRule type="cellIs" dxfId="47" priority="119" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M522:EP525">
+    <cfRule type="cellIs" dxfId="47" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M521:EP524">
+  <conditionalFormatting sqref="M243:EP243">
     <cfRule type="cellIs" dxfId="46" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M243:EP243">
+  <conditionalFormatting sqref="M244:EP244">
     <cfRule type="cellIs" dxfId="45" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M244:EP244">
+  <conditionalFormatting sqref="M576:EP577">
     <cfRule type="cellIs" dxfId="44" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M575:EP576">
-    <cfRule type="cellIs" dxfId="43" priority="109" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M596:EP599">
+    <cfRule type="cellIs" dxfId="43" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M595:EP598">
+  <conditionalFormatting sqref="M433:EP433">
     <cfRule type="cellIs" dxfId="42" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M432:EP432">
-    <cfRule type="cellIs" dxfId="41" priority="105" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M146:EP146">
+    <cfRule type="cellIs" dxfId="41" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M146:EP146">
+  <conditionalFormatting sqref="M445:EP447">
     <cfRule type="cellIs" dxfId="40" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M444:EP446">
+  <conditionalFormatting sqref="M438:EP439">
     <cfRule type="cellIs" dxfId="39" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M437:EP438">
-    <cfRule type="cellIs" dxfId="38" priority="100" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M463:EP465">
+    <cfRule type="cellIs" dxfId="38" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M462:EP464">
+  <conditionalFormatting sqref="M383:EP384">
     <cfRule type="cellIs" dxfId="37" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M383:EP384">
-    <cfRule type="cellIs" dxfId="36" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M334:EP334">
-    <cfRule type="cellIs" dxfId="35" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337:EP337">
+    <cfRule type="cellIs" dxfId="35" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M121:EP121">
     <cfRule type="cellIs" dxfId="34" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M121:EP121">
-    <cfRule type="cellIs" dxfId="33" priority="90" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M542:EP542">
+    <cfRule type="cellIs" dxfId="33" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M541:EP541">
-    <cfRule type="cellIs" dxfId="32" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M592:EP592">
-    <cfRule type="cellIs" dxfId="31" priority="78" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M593:EP593">
+    <cfRule type="cellIs" dxfId="32" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:EP52">
-    <cfRule type="cellIs" dxfId="30" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:EP30">
-    <cfRule type="cellIs" dxfId="29" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:EP28">
+    <cfRule type="cellIs" dxfId="29" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M572:EP573">
     <cfRule type="cellIs" dxfId="28" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M571:EP572">
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M78:EP79">
+    <cfRule type="cellIs" dxfId="27" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M78:EP79">
-    <cfRule type="cellIs" dxfId="26" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M573:EP573">
-    <cfRule type="cellIs" dxfId="25" priority="41" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M574:EP574">
+    <cfRule type="cellIs" dxfId="26" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M107:EP107">
+    <cfRule type="cellIs" dxfId="25" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:EP110">
     <cfRule type="cellIs" dxfId="24" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110:EP110">
+  <conditionalFormatting sqref="M112:EP112">
     <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M112:EP112">
-    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M29:EP29">
+    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:EP29">
-    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M473:EP473">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M472:EP472">
+  <conditionalFormatting sqref="M236:EP236">
     <cfRule type="cellIs" dxfId="20" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M236:EP236">
-    <cfRule type="cellIs" dxfId="19" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M256:EP256">
-    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M398:EP404">
-    <cfRule type="cellIs" dxfId="17" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259:EP259">
-    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M344:EP344">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338:EP338">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:EP8">
     <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:EP8">
+  <conditionalFormatting sqref="G496:L496">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G495:L495">
+  <conditionalFormatting sqref="G472:L472">
     <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G471:L471">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G382:L382">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G382:L382">
+  <conditionalFormatting sqref="G399:L399">
     <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G399:L399">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G545:EP546">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G544:EP545">
+  <conditionalFormatting sqref="G405:L406">
     <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G405:L406">
+  <conditionalFormatting sqref="M405:EP406">
     <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M405:EP406">
+  <conditionalFormatting sqref="G407:L407">
     <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G407:L407">
+  <conditionalFormatting sqref="M407:EP407">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M407:EP407">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G418:L418">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57729,7 +57826,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="171" id="{6980C48E-3ACB-4666-B62E-14C76BA6A292}">
+          <x14:cfRule type="expression" priority="172" id="{6980C48E-3ACB-4666-B62E-14C76BA6A292}">
             <xm:f>-MATCH($A339,'\\server\zayavki\10 версия 2019\[Версия 5 ВАГОНЫ с 20.03.2019.xlsx]Лист3'!#REF!,0)</xm:f>
             <x14:dxf>
               <fill>
@@ -57742,8 +57839,8 @@
           <xm:sqref>A339:A343 A345:A347</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="126" id="{95CA8E03-C538-46D3-BBC4-AA843E06E59F}">
-            <xm:f>-MATCH($A513,'[19 ОБН версия КОНДИ с 09.07.2021.xlsx]Лист3'!#REF!,0)</xm:f>
+          <x14:cfRule type="expression" priority="127" id="{95CA8E03-C538-46D3-BBC4-AA843E06E59F}">
+            <xm:f>-MATCH($A514,'[19 ОБН версия КОНДИ с 09.07.2021.xlsx]Лист3'!#REF!,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57752,11 +57849,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A513:A515</xm:sqref>
+          <xm:sqref>A514:A516</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="104" id="{91212203-4AB3-4049-B553-DF075E575D9F}">
-            <xm:f>-MATCH($A432,'\\server\zayavki\29 версия\[29 версия КОНДИ с 12.12.2022.xlsx]Лист3'!#REF!,0)</xm:f>
+          <x14:cfRule type="expression" priority="105" id="{91212203-4AB3-4049-B553-DF075E575D9F}">
+            <xm:f>-MATCH($A433,'\\server\zayavki\29 версия\[29 версия КОНДИ с 12.12.2022.xlsx]Лист3'!#REF!,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57765,10 +57862,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A432:A433</xm:sqref>
+          <xm:sqref>A433:A434</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="16" id="{1F0E2768-2CA8-40DD-9114-FDE222D9E819}">
+          <x14:cfRule type="expression" priority="17" id="{1F0E2768-2CA8-40DD-9114-FDE222D9E819}">
             <xm:f>-MATCH($A344,'\\server\zayavki\10 версия 2019\[Версия 5 ВАГОНЫ с 20.03.2019.xlsx]Лист3'!#REF!,0)</xm:f>
             <x14:dxf>
               <fill>
